--- a/BackTest/2019-11-18 BackTest MIX.xlsx
+++ b/BackTest/2019-11-18 BackTest MIX.xlsx
@@ -451,17 +451,13 @@
         <v>4.760000000000002</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="K2" t="n">
-        <v>4.76</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>4.760000000000002</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="K3" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>4.755000000000002</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,22 +556,14 @@
         <v>4.725000000000002</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>4.73</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -619,22 +591,14 @@
         <v>4.700000000000003</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K6" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -662,22 +626,14 @@
         <v>4.695000000000004</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="K7" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -705,22 +661,14 @@
         <v>4.690000000000005</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="K8" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -748,22 +696,14 @@
         <v>4.690000000000005</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -791,22 +731,14 @@
         <v>4.690000000000005</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="K10" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -834,22 +766,14 @@
         <v>4.685000000000004</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="K11" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -877,22 +801,14 @@
         <v>4.695000000000004</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="K12" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -920,22 +836,14 @@
         <v>4.715000000000003</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="K13" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -963,22 +871,14 @@
         <v>4.710000000000003</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="K14" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -1006,22 +906,14 @@
         <v>4.715000000000003</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>4.73</v>
-      </c>
-      <c r="K15" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1049,22 +941,14 @@
         <v>4.730000000000004</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>4.73</v>
-      </c>
-      <c r="K16" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1092,22 +976,14 @@
         <v>4.710000000000004</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="K17" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1135,22 +1011,14 @@
         <v>4.685000000000004</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="K18" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1178,22 +1046,14 @@
         <v>4.675000000000004</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="K19" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1221,22 +1081,14 @@
         <v>4.695000000000004</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="K20" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1264,22 +1116,14 @@
         <v>4.720000000000003</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="K21" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1307,22 +1151,14 @@
         <v>4.720000000000004</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="K22" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1350,22 +1186,14 @@
         <v>4.715000000000005</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="K23" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1393,22 +1221,14 @@
         <v>4.715000000000005</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="K24" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1436,22 +1256,14 @@
         <v>4.720000000000004</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="K25" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1479,22 +1291,14 @@
         <v>4.765000000000004</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="K26" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1522,22 +1326,14 @@
         <v>4.820000000000004</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="K27" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1565,22 +1361,14 @@
         <v>4.850000000000005</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>4.83</v>
-      </c>
-      <c r="K28" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1608,22 +1396,14 @@
         <v>4.850000000000005</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>4.87</v>
-      </c>
-      <c r="K29" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1651,22 +1431,14 @@
         <v>4.870000000000005</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>4.88</v>
-      </c>
-      <c r="K30" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1694,22 +1466,14 @@
         <v>4.945000000000005</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>4.91</v>
-      </c>
-      <c r="K31" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1743,14 +1507,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1784,14 +1542,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1825,14 +1577,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1866,14 +1612,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1907,14 +1647,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1948,14 +1682,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1989,14 +1717,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -2030,14 +1752,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2071,14 +1787,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2112,14 +1822,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2153,14 +1857,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2194,14 +1892,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2235,14 +1927,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2276,14 +1962,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2317,14 +1997,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2358,14 +2032,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2399,14 +2067,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2440,14 +2102,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2481,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2522,14 +2172,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2563,14 +2207,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2604,14 +2242,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2645,14 +2277,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2686,14 +2312,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2727,14 +2347,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2768,14 +2382,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2809,14 +2417,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2850,14 +2452,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2891,14 +2487,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2932,14 +2522,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2973,14 +2557,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -3014,14 +2592,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -3055,14 +2627,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3096,14 +2662,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3137,14 +2697,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3178,14 +2732,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3219,14 +2767,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3260,14 +2802,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3301,14 +2837,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3342,14 +2872,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3383,14 +2907,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3424,14 +2942,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3465,14 +2977,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3506,14 +3012,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3547,14 +3047,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3588,14 +3082,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3629,14 +3117,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3670,14 +3152,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3711,14 +3187,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3752,14 +3222,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3790,17 +3254,11 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3834,16 +3292,10 @@
         <v>1</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
-        <v>1.200882352941177</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -3942,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3977,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -15139,13 +14591,17 @@
         <v>5.145000000000016</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
       </c>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="K406" t="n">
+        <v>5.16</v>
+      </c>
       <c r="L406" t="inlineStr"/>
       <c r="M406" t="n">
         <v>1</v>
@@ -15180,8 +14636,14 @@
         <v>0</v>
       </c>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
-      <c r="L407" t="inlineStr"/>
+      <c r="K407" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L407" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M407" t="n">
         <v>1</v>
       </c>
@@ -15215,8 +14677,14 @@
         <v>0</v>
       </c>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
-      <c r="L408" t="inlineStr"/>
+      <c r="K408" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M408" t="n">
         <v>1</v>
       </c>
@@ -15250,8 +14718,14 @@
         <v>0</v>
       </c>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
-      <c r="L409" t="inlineStr"/>
+      <c r="K409" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M409" t="n">
         <v>1</v>
       </c>
@@ -15285,8 +14759,14 @@
         <v>0</v>
       </c>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
-      <c r="L410" t="inlineStr"/>
+      <c r="K410" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M410" t="n">
         <v>1</v>
       </c>
@@ -15320,8 +14800,14 @@
         <v>0</v>
       </c>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
-      <c r="L411" t="inlineStr"/>
+      <c r="K411" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M411" t="n">
         <v>1</v>
       </c>
@@ -15349,14 +14835,22 @@
         <v>5.125000000000016</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
       </c>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
-      <c r="L412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="K412" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M412" t="n">
         <v>1</v>
       </c>
@@ -15384,14 +14878,22 @@
         <v>5.135000000000016</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
       </c>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
-      <c r="L413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="K413" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M413" t="n">
         <v>1</v>
       </c>
@@ -15419,14 +14921,22 @@
         <v>5.140000000000017</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
       </c>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
-      <c r="L414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="K414" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M414" t="n">
         <v>1</v>
       </c>
@@ -15460,8 +14970,14 @@
         <v>0</v>
       </c>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
-      <c r="L415" t="inlineStr"/>
+      <c r="K415" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M415" t="n">
         <v>1</v>
       </c>
@@ -15495,8 +15011,14 @@
         <v>0</v>
       </c>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
-      <c r="L416" t="inlineStr"/>
+      <c r="K416" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M416" t="n">
         <v>1</v>
       </c>
@@ -15530,8 +15052,14 @@
         <v>0</v>
       </c>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
-      <c r="L417" t="inlineStr"/>
+      <c r="K417" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M417" t="n">
         <v>1</v>
       </c>
@@ -15565,8 +15093,14 @@
         <v>0</v>
       </c>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
-      <c r="L418" t="inlineStr"/>
+      <c r="K418" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M418" t="n">
         <v>1</v>
       </c>
@@ -15600,8 +15134,14 @@
         <v>0</v>
       </c>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
-      <c r="L419" t="inlineStr"/>
+      <c r="K419" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M419" t="n">
         <v>1</v>
       </c>
@@ -15635,8 +15175,14 @@
         <v>0</v>
       </c>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
-      <c r="L420" t="inlineStr"/>
+      <c r="K420" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M420" t="n">
         <v>1</v>
       </c>
@@ -15670,8 +15216,14 @@
         <v>0</v>
       </c>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
-      <c r="L421" t="inlineStr"/>
+      <c r="K421" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M421" t="n">
         <v>1</v>
       </c>
@@ -15705,8 +15257,14 @@
         <v>0</v>
       </c>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
-      <c r="L422" t="inlineStr"/>
+      <c r="K422" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M422" t="n">
         <v>1</v>
       </c>
@@ -15740,8 +15298,14 @@
         <v>0</v>
       </c>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
-      <c r="L423" t="inlineStr"/>
+      <c r="K423" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M423" t="n">
         <v>1</v>
       </c>
@@ -15775,8 +15339,14 @@
         <v>0</v>
       </c>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
-      <c r="L424" t="inlineStr"/>
+      <c r="K424" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M424" t="n">
         <v>1</v>
       </c>
@@ -15810,8 +15380,14 @@
         <v>0</v>
       </c>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
-      <c r="L425" t="inlineStr"/>
+      <c r="K425" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M425" t="n">
         <v>1</v>
       </c>
@@ -15845,8 +15421,14 @@
         <v>0</v>
       </c>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
-      <c r="L426" t="inlineStr"/>
+      <c r="K426" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M426" t="n">
         <v>1</v>
       </c>
@@ -15880,8 +15462,14 @@
         <v>0</v>
       </c>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
-      <c r="L427" t="inlineStr"/>
+      <c r="K427" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M427" t="n">
         <v>1</v>
       </c>
@@ -15915,8 +15503,14 @@
         <v>0</v>
       </c>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
-      <c r="L428" t="inlineStr"/>
+      <c r="K428" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M428" t="n">
         <v>1</v>
       </c>
@@ -15950,8 +15544,14 @@
         <v>0</v>
       </c>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
-      <c r="L429" t="inlineStr"/>
+      <c r="K429" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M429" t="n">
         <v>1</v>
       </c>
@@ -15985,8 +15585,14 @@
         <v>0</v>
       </c>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
-      <c r="L430" t="inlineStr"/>
+      <c r="K430" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M430" t="n">
         <v>1</v>
       </c>
@@ -16020,8 +15626,14 @@
         <v>0</v>
       </c>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
-      <c r="L431" t="inlineStr"/>
+      <c r="K431" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M431" t="n">
         <v>1</v>
       </c>
@@ -16055,8 +15667,14 @@
         <v>0</v>
       </c>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
-      <c r="L432" t="inlineStr"/>
+      <c r="K432" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M432" t="n">
         <v>1</v>
       </c>
@@ -16090,8 +15708,14 @@
         <v>0</v>
       </c>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
-      <c r="L433" t="inlineStr"/>
+      <c r="K433" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M433" t="n">
         <v>1</v>
       </c>
@@ -16125,8 +15749,14 @@
         <v>0</v>
       </c>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
-      <c r="L434" t="inlineStr"/>
+      <c r="K434" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M434" t="n">
         <v>1</v>
       </c>
@@ -16160,8 +15790,14 @@
         <v>0</v>
       </c>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
-      <c r="L435" t="inlineStr"/>
+      <c r="K435" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M435" t="n">
         <v>1</v>
       </c>
@@ -16195,8 +15831,14 @@
         <v>0</v>
       </c>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
-      <c r="L436" t="inlineStr"/>
+      <c r="K436" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M436" t="n">
         <v>1</v>
       </c>
@@ -16230,8 +15872,14 @@
         <v>0</v>
       </c>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
-      <c r="L437" t="inlineStr"/>
+      <c r="K437" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M437" t="n">
         <v>1</v>
       </c>
@@ -16265,8 +15913,14 @@
         <v>0</v>
       </c>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
-      <c r="L438" t="inlineStr"/>
+      <c r="K438" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M438" t="n">
         <v>1</v>
       </c>
@@ -16300,8 +15954,14 @@
         <v>0</v>
       </c>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
-      <c r="L439" t="inlineStr"/>
+      <c r="K439" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M439" t="n">
         <v>1</v>
       </c>
@@ -16335,8 +15995,14 @@
         <v>0</v>
       </c>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
-      <c r="L440" t="inlineStr"/>
+      <c r="K440" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M440" t="n">
         <v>1</v>
       </c>
@@ -16370,8 +16036,14 @@
         <v>0</v>
       </c>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
-      <c r="L441" t="inlineStr"/>
+      <c r="K441" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M441" t="n">
         <v>1</v>
       </c>
@@ -16405,8 +16077,14 @@
         <v>0</v>
       </c>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
-      <c r="L442" t="inlineStr"/>
+      <c r="K442" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M442" t="n">
         <v>1</v>
       </c>
@@ -16440,8 +16118,14 @@
         <v>0</v>
       </c>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
-      <c r="L443" t="inlineStr"/>
+      <c r="K443" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M443" t="n">
         <v>1</v>
       </c>
@@ -16475,8 +16159,14 @@
         <v>0</v>
       </c>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
-      <c r="L444" t="inlineStr"/>
+      <c r="K444" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M444" t="n">
         <v>1</v>
       </c>
@@ -16510,8 +16200,14 @@
         <v>0</v>
       </c>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
-      <c r="L445" t="inlineStr"/>
+      <c r="K445" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M445" t="n">
         <v>1</v>
       </c>
@@ -16545,8 +16241,14 @@
         <v>0</v>
       </c>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
-      <c r="L446" t="inlineStr"/>
+      <c r="K446" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M446" t="n">
         <v>1</v>
       </c>
@@ -16580,8 +16282,14 @@
         <v>0</v>
       </c>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
-      <c r="L447" t="inlineStr"/>
+      <c r="K447" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M447" t="n">
         <v>1</v>
       </c>
@@ -16615,8 +16323,14 @@
         <v>0</v>
       </c>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
-      <c r="L448" t="inlineStr"/>
+      <c r="K448" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M448" t="n">
         <v>1</v>
       </c>
@@ -16650,8 +16364,14 @@
         <v>0</v>
       </c>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
-      <c r="L449" t="inlineStr"/>
+      <c r="K449" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M449" t="n">
         <v>1</v>
       </c>
@@ -16685,8 +16405,14 @@
         <v>0</v>
       </c>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
-      <c r="L450" t="inlineStr"/>
+      <c r="K450" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M450" t="n">
         <v>1</v>
       </c>
@@ -16720,8 +16446,14 @@
         <v>0</v>
       </c>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
-      <c r="L451" t="inlineStr"/>
+      <c r="K451" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M451" t="n">
         <v>1</v>
       </c>
@@ -16755,8 +16487,14 @@
         <v>0</v>
       </c>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
-      <c r="L452" t="inlineStr"/>
+      <c r="K452" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M452" t="n">
         <v>1</v>
       </c>
@@ -16790,8 +16528,14 @@
         <v>0</v>
       </c>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
-      <c r="L453" t="inlineStr"/>
+      <c r="K453" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M453" t="n">
         <v>1</v>
       </c>
@@ -16825,8 +16569,14 @@
         <v>0</v>
       </c>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
-      <c r="L454" t="inlineStr"/>
+      <c r="K454" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M454" t="n">
         <v>1</v>
       </c>
@@ -16860,8 +16610,14 @@
         <v>0</v>
       </c>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
-      <c r="L455" t="inlineStr"/>
+      <c r="K455" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M455" t="n">
         <v>1</v>
       </c>
@@ -16895,8 +16651,14 @@
         <v>0</v>
       </c>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
-      <c r="L456" t="inlineStr"/>
+      <c r="K456" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M456" t="n">
         <v>1</v>
       </c>
@@ -16930,8 +16692,14 @@
         <v>0</v>
       </c>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
-      <c r="L457" t="inlineStr"/>
+      <c r="K457" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M457" t="n">
         <v>1</v>
       </c>
@@ -16965,8 +16733,14 @@
         <v>0</v>
       </c>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
-      <c r="L458" t="inlineStr"/>
+      <c r="K458" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M458" t="n">
         <v>1</v>
       </c>
@@ -17000,8 +16774,14 @@
         <v>0</v>
       </c>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
-      <c r="L459" t="inlineStr"/>
+      <c r="K459" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M459" t="n">
         <v>1</v>
       </c>
@@ -17035,8 +16815,14 @@
         <v>0</v>
       </c>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
-      <c r="L460" t="inlineStr"/>
+      <c r="K460" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M460" t="n">
         <v>1</v>
       </c>
@@ -17070,8 +16856,14 @@
         <v>0</v>
       </c>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
-      <c r="L461" t="inlineStr"/>
+      <c r="K461" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M461" t="n">
         <v>1</v>
       </c>
@@ -17105,8 +16897,14 @@
         <v>0</v>
       </c>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
-      <c r="L462" t="inlineStr"/>
+      <c r="K462" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M462" t="n">
         <v>1</v>
       </c>
@@ -17140,8 +16938,14 @@
         <v>0</v>
       </c>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
-      <c r="L463" t="inlineStr"/>
+      <c r="K463" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M463" t="n">
         <v>1</v>
       </c>
@@ -17175,8 +16979,14 @@
         <v>0</v>
       </c>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
-      <c r="L464" t="inlineStr"/>
+      <c r="K464" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M464" t="n">
         <v>1</v>
       </c>
@@ -17210,8 +17020,14 @@
         <v>0</v>
       </c>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
-      <c r="L465" t="inlineStr"/>
+      <c r="K465" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M465" t="n">
         <v>1</v>
       </c>
@@ -17245,8 +17061,14 @@
         <v>0</v>
       </c>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
-      <c r="L466" t="inlineStr"/>
+      <c r="K466" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M466" t="n">
         <v>1</v>
       </c>
@@ -17280,8 +17102,14 @@
         <v>0</v>
       </c>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
-      <c r="L467" t="inlineStr"/>
+      <c r="K467" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M467" t="n">
         <v>1</v>
       </c>
@@ -17315,8 +17143,14 @@
         <v>0</v>
       </c>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
-      <c r="L468" t="inlineStr"/>
+      <c r="K468" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M468" t="n">
         <v>1</v>
       </c>
@@ -17350,8 +17184,14 @@
         <v>0</v>
       </c>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
-      <c r="L469" t="inlineStr"/>
+      <c r="K469" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M469" t="n">
         <v>1</v>
       </c>
@@ -17385,8 +17225,14 @@
         <v>0</v>
       </c>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
-      <c r="L470" t="inlineStr"/>
+      <c r="K470" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M470" t="n">
         <v>1</v>
       </c>
@@ -17420,8 +17266,14 @@
         <v>0</v>
       </c>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
-      <c r="L471" t="inlineStr"/>
+      <c r="K471" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M471" t="n">
         <v>1</v>
       </c>
@@ -17455,8 +17307,14 @@
         <v>0</v>
       </c>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
-      <c r="L472" t="inlineStr"/>
+      <c r="K472" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M472" t="n">
         <v>1</v>
       </c>
@@ -17490,8 +17348,14 @@
         <v>0</v>
       </c>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
-      <c r="L473" t="inlineStr"/>
+      <c r="K473" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M473" t="n">
         <v>1</v>
       </c>
@@ -17525,8 +17389,14 @@
         <v>0</v>
       </c>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
-      <c r="L474" t="inlineStr"/>
+      <c r="K474" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M474" t="n">
         <v>1</v>
       </c>
@@ -17560,8 +17430,14 @@
         <v>0</v>
       </c>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
-      <c r="L475" t="inlineStr"/>
+      <c r="K475" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M475" t="n">
         <v>1</v>
       </c>
@@ -17595,8 +17471,14 @@
         <v>0</v>
       </c>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
-      <c r="L476" t="inlineStr"/>
+      <c r="K476" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M476" t="n">
         <v>1</v>
       </c>
@@ -17630,8 +17512,14 @@
         <v>0</v>
       </c>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
-      <c r="L477" t="inlineStr"/>
+      <c r="K477" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M477" t="n">
         <v>1</v>
       </c>
@@ -17665,8 +17553,14 @@
         <v>0</v>
       </c>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
-      <c r="L478" t="inlineStr"/>
+      <c r="K478" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M478" t="n">
         <v>1</v>
       </c>
@@ -17700,8 +17594,14 @@
         <v>0</v>
       </c>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
-      <c r="L479" t="inlineStr"/>
+      <c r="K479" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M479" t="n">
         <v>1</v>
       </c>
@@ -17735,8 +17635,14 @@
         <v>0</v>
       </c>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
-      <c r="L480" t="inlineStr"/>
+      <c r="K480" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M480" t="n">
         <v>1</v>
       </c>
@@ -17770,8 +17676,14 @@
         <v>0</v>
       </c>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
-      <c r="L481" t="inlineStr"/>
+      <c r="K481" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M481" t="n">
         <v>1</v>
       </c>
@@ -17805,8 +17717,14 @@
         <v>0</v>
       </c>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
-      <c r="L482" t="inlineStr"/>
+      <c r="K482" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M482" t="n">
         <v>1</v>
       </c>
@@ -17840,8 +17758,14 @@
         <v>0</v>
       </c>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
-      <c r="L483" t="inlineStr"/>
+      <c r="K483" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M483" t="n">
         <v>1</v>
       </c>
@@ -17875,8 +17799,14 @@
         <v>0</v>
       </c>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
-      <c r="L484" t="inlineStr"/>
+      <c r="K484" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M484" t="n">
         <v>1</v>
       </c>
@@ -17910,8 +17840,14 @@
         <v>0</v>
       </c>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
-      <c r="L485" t="inlineStr"/>
+      <c r="K485" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M485" t="n">
         <v>1</v>
       </c>
@@ -17945,8 +17881,14 @@
         <v>0</v>
       </c>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
-      <c r="L486" t="inlineStr"/>
+      <c r="K486" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M486" t="n">
         <v>1</v>
       </c>
@@ -17980,8 +17922,14 @@
         <v>0</v>
       </c>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
-      <c r="L487" t="inlineStr"/>
+      <c r="K487" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M487" t="n">
         <v>1</v>
       </c>
@@ -18015,8 +17963,14 @@
         <v>0</v>
       </c>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
-      <c r="L488" t="inlineStr"/>
+      <c r="K488" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M488" t="n">
         <v>1</v>
       </c>
@@ -18050,8 +18004,14 @@
         <v>0</v>
       </c>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
-      <c r="L489" t="inlineStr"/>
+      <c r="K489" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M489" t="n">
         <v>1</v>
       </c>
@@ -18085,8 +18045,14 @@
         <v>0</v>
       </c>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
-      <c r="L490" t="inlineStr"/>
+      <c r="K490" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M490" t="n">
         <v>1</v>
       </c>
@@ -18120,8 +18086,14 @@
         <v>0</v>
       </c>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
-      <c r="L491" t="inlineStr"/>
+      <c r="K491" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M491" t="n">
         <v>1</v>
       </c>
@@ -18155,8 +18127,14 @@
         <v>0</v>
       </c>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
-      <c r="L492" t="inlineStr"/>
+      <c r="K492" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M492" t="n">
         <v>1</v>
       </c>
@@ -18190,8 +18168,14 @@
         <v>0</v>
       </c>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
-      <c r="L493" t="inlineStr"/>
+      <c r="K493" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M493" t="n">
         <v>1</v>
       </c>
@@ -18225,8 +18209,14 @@
         <v>0</v>
       </c>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
-      <c r="L494" t="inlineStr"/>
+      <c r="K494" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M494" t="n">
         <v>1</v>
       </c>
@@ -18260,8 +18250,14 @@
         <v>0</v>
       </c>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
-      <c r="L495" t="inlineStr"/>
+      <c r="K495" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M495" t="n">
         <v>1</v>
       </c>
@@ -18295,8 +18291,14 @@
         <v>0</v>
       </c>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
-      <c r="L496" t="inlineStr"/>
+      <c r="K496" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M496" t="n">
         <v>1</v>
       </c>
@@ -18330,8 +18332,14 @@
         <v>0</v>
       </c>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
-      <c r="L497" t="inlineStr"/>
+      <c r="K497" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M497" t="n">
         <v>1</v>
       </c>
@@ -18365,8 +18373,14 @@
         <v>0</v>
       </c>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
-      <c r="L498" t="inlineStr"/>
+      <c r="K498" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M498" t="n">
         <v>1</v>
       </c>
@@ -18400,8 +18414,14 @@
         <v>0</v>
       </c>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
-      <c r="L499" t="inlineStr"/>
+      <c r="K499" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M499" t="n">
         <v>1</v>
       </c>
@@ -18435,8 +18455,14 @@
         <v>0</v>
       </c>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
-      <c r="L500" t="inlineStr"/>
+      <c r="K500" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M500" t="n">
         <v>1</v>
       </c>
@@ -18470,8 +18496,14 @@
         <v>0</v>
       </c>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
-      <c r="L501" t="inlineStr"/>
+      <c r="K501" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M501" t="n">
         <v>1</v>
       </c>
@@ -18505,8 +18537,14 @@
         <v>0</v>
       </c>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
-      <c r="L502" t="inlineStr"/>
+      <c r="K502" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M502" t="n">
         <v>1</v>
       </c>
@@ -18540,8 +18578,14 @@
         <v>0</v>
       </c>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
-      <c r="L503" t="inlineStr"/>
+      <c r="K503" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M503" t="n">
         <v>1</v>
       </c>
@@ -18575,8 +18619,14 @@
         <v>0</v>
       </c>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
-      <c r="L504" t="inlineStr"/>
+      <c r="K504" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M504" t="n">
         <v>1</v>
       </c>
@@ -18610,8 +18660,14 @@
         <v>0</v>
       </c>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
-      <c r="L505" t="inlineStr"/>
+      <c r="K505" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M505" t="n">
         <v>1</v>
       </c>
@@ -18645,8 +18701,14 @@
         <v>0</v>
       </c>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
-      <c r="L506" t="inlineStr"/>
+      <c r="K506" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M506" t="n">
         <v>1</v>
       </c>
@@ -18680,8 +18742,14 @@
         <v>0</v>
       </c>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
-      <c r="L507" t="inlineStr"/>
+      <c r="K507" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M507" t="n">
         <v>1</v>
       </c>
@@ -18715,8 +18783,14 @@
         <v>0</v>
       </c>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
-      <c r="L508" t="inlineStr"/>
+      <c r="K508" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M508" t="n">
         <v>1</v>
       </c>
@@ -18750,8 +18824,14 @@
         <v>0</v>
       </c>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
-      <c r="L509" t="inlineStr"/>
+      <c r="K509" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M509" t="n">
         <v>1</v>
       </c>
@@ -18785,8 +18865,14 @@
         <v>0</v>
       </c>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
-      <c r="L510" t="inlineStr"/>
+      <c r="K510" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M510" t="n">
         <v>1</v>
       </c>
@@ -18820,8 +18906,14 @@
         <v>0</v>
       </c>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
-      <c r="L511" t="inlineStr"/>
+      <c r="K511" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M511" t="n">
         <v>1</v>
       </c>
@@ -18855,8 +18947,14 @@
         <v>0</v>
       </c>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
-      <c r="L512" t="inlineStr"/>
+      <c r="K512" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M512" t="n">
         <v>1</v>
       </c>
@@ -18890,8 +18988,14 @@
         <v>0</v>
       </c>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
-      <c r="L513" t="inlineStr"/>
+      <c r="K513" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M513" t="n">
         <v>1</v>
       </c>
@@ -18925,8 +19029,14 @@
         <v>0</v>
       </c>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
-      <c r="L514" t="inlineStr"/>
+      <c r="K514" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M514" t="n">
         <v>1</v>
       </c>
@@ -18960,8 +19070,14 @@
         <v>0</v>
       </c>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
-      <c r="L515" t="inlineStr"/>
+      <c r="K515" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M515" t="n">
         <v>1</v>
       </c>
@@ -18995,8 +19111,14 @@
         <v>0</v>
       </c>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
-      <c r="L516" t="inlineStr"/>
+      <c r="K516" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M516" t="n">
         <v>1</v>
       </c>
@@ -19030,8 +19152,14 @@
         <v>0</v>
       </c>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
-      <c r="L517" t="inlineStr"/>
+      <c r="K517" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M517" t="n">
         <v>1</v>
       </c>
@@ -19065,8 +19193,14 @@
         <v>0</v>
       </c>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
-      <c r="L518" t="inlineStr"/>
+      <c r="K518" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M518" t="n">
         <v>1</v>
       </c>
@@ -19100,8 +19234,14 @@
         <v>0</v>
       </c>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
-      <c r="L519" t="inlineStr"/>
+      <c r="K519" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M519" t="n">
         <v>1</v>
       </c>
@@ -19135,8 +19275,14 @@
         <v>0</v>
       </c>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
-      <c r="L520" t="inlineStr"/>
+      <c r="K520" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M520" t="n">
         <v>1</v>
       </c>
@@ -19170,8 +19316,14 @@
         <v>0</v>
       </c>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
-      <c r="L521" t="inlineStr"/>
+      <c r="K521" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M521" t="n">
         <v>1</v>
       </c>
@@ -19205,8 +19357,14 @@
         <v>0</v>
       </c>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
-      <c r="L522" t="inlineStr"/>
+      <c r="K522" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M522" t="n">
         <v>1</v>
       </c>
@@ -19240,8 +19398,14 @@
         <v>0</v>
       </c>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
-      <c r="L523" t="inlineStr"/>
+      <c r="K523" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M523" t="n">
         <v>1</v>
       </c>
@@ -19275,8 +19439,14 @@
         <v>0</v>
       </c>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
-      <c r="L524" t="inlineStr"/>
+      <c r="K524" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M524" t="n">
         <v>1</v>
       </c>
@@ -19310,8 +19480,14 @@
         <v>0</v>
       </c>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
-      <c r="L525" t="inlineStr"/>
+      <c r="K525" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M525" t="n">
         <v>1</v>
       </c>
@@ -19345,8 +19521,14 @@
         <v>0</v>
       </c>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
-      <c r="L526" t="inlineStr"/>
+      <c r="K526" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M526" t="n">
         <v>1</v>
       </c>
@@ -19380,8 +19562,14 @@
         <v>0</v>
       </c>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
-      <c r="L527" t="inlineStr"/>
+      <c r="K527" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M527" t="n">
         <v>1</v>
       </c>
@@ -19415,8 +19603,14 @@
         <v>0</v>
       </c>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
-      <c r="L528" t="inlineStr"/>
+      <c r="K528" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M528" t="n">
         <v>1</v>
       </c>
@@ -19450,8 +19644,14 @@
         <v>0</v>
       </c>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
-      <c r="L529" t="inlineStr"/>
+      <c r="K529" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M529" t="n">
         <v>1</v>
       </c>
@@ -19485,8 +19685,14 @@
         <v>0</v>
       </c>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
-      <c r="L530" t="inlineStr"/>
+      <c r="K530" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M530" t="n">
         <v>1</v>
       </c>
@@ -19520,8 +19726,14 @@
         <v>0</v>
       </c>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
-      <c r="L531" t="inlineStr"/>
+      <c r="K531" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M531" t="n">
         <v>1</v>
       </c>
@@ -19549,14 +19761,22 @@
         <v>4.885000000000009</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I532" t="n">
         <v>0</v>
       </c>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
-      <c r="L532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="K532" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M532" t="n">
         <v>1</v>
       </c>
@@ -19584,14 +19804,22 @@
         <v>4.900000000000009</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I533" t="n">
         <v>0</v>
       </c>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
-      <c r="L533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K533" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M533" t="n">
         <v>1</v>
       </c>
@@ -19619,14 +19847,22 @@
         <v>4.900000000000009</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I534" t="n">
         <v>0</v>
       </c>
-      <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
-      <c r="L534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K534" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M534" t="n">
         <v>1</v>
       </c>
@@ -19654,14 +19890,22 @@
         <v>4.900000000000009</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I535" t="n">
         <v>0</v>
       </c>
-      <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
-      <c r="L535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K535" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M535" t="n">
         <v>1</v>
       </c>
@@ -19689,14 +19933,22 @@
         <v>4.895000000000009</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I536" t="n">
         <v>0</v>
       </c>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
-      <c r="L536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K536" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M536" t="n">
         <v>1</v>
       </c>
@@ -19730,8 +19982,14 @@
         <v>0</v>
       </c>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
-      <c r="L537" t="inlineStr"/>
+      <c r="K537" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M537" t="n">
         <v>1</v>
       </c>
@@ -19759,14 +20017,22 @@
         <v>4.88000000000001</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I538" t="n">
         <v>0</v>
       </c>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
-      <c r="L538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="K538" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M538" t="n">
         <v>1</v>
       </c>
@@ -19800,8 +20066,14 @@
         <v>0</v>
       </c>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
-      <c r="L539" t="inlineStr"/>
+      <c r="K539" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M539" t="n">
         <v>1</v>
       </c>
@@ -19835,8 +20107,14 @@
         <v>0</v>
       </c>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
-      <c r="L540" t="inlineStr"/>
+      <c r="K540" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M540" t="n">
         <v>1</v>
       </c>
@@ -19870,8 +20148,14 @@
         <v>0</v>
       </c>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
-      <c r="L541" t="inlineStr"/>
+      <c r="K541" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M541" t="n">
         <v>1</v>
       </c>
@@ -19905,8 +20189,14 @@
         <v>0</v>
       </c>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
-      <c r="L542" t="inlineStr"/>
+      <c r="K542" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M542" t="n">
         <v>1</v>
       </c>
@@ -19940,8 +20230,14 @@
         <v>0</v>
       </c>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
-      <c r="L543" t="inlineStr"/>
+      <c r="K543" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M543" t="n">
         <v>1</v>
       </c>
@@ -19975,8 +20271,14 @@
         <v>0</v>
       </c>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
-      <c r="L544" t="inlineStr"/>
+      <c r="K544" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M544" t="n">
         <v>1</v>
       </c>
@@ -20010,8 +20312,14 @@
         <v>0</v>
       </c>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
-      <c r="L545" t="inlineStr"/>
+      <c r="K545" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M545" t="n">
         <v>1</v>
       </c>
@@ -20045,8 +20353,14 @@
         <v>0</v>
       </c>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
-      <c r="L546" t="inlineStr"/>
+      <c r="K546" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M546" t="n">
         <v>1</v>
       </c>
@@ -20080,8 +20394,14 @@
         <v>0</v>
       </c>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
-      <c r="L547" t="inlineStr"/>
+      <c r="K547" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M547" t="n">
         <v>1</v>
       </c>
@@ -20115,8 +20435,14 @@
         <v>0</v>
       </c>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
-      <c r="L548" t="inlineStr"/>
+      <c r="K548" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M548" t="n">
         <v>1</v>
       </c>
@@ -20150,8 +20476,14 @@
         <v>0</v>
       </c>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
-      <c r="L549" t="inlineStr"/>
+      <c r="K549" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M549" t="n">
         <v>1</v>
       </c>
@@ -20185,8 +20517,14 @@
         <v>0</v>
       </c>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
-      <c r="L550" t="inlineStr"/>
+      <c r="K550" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M550" t="n">
         <v>1</v>
       </c>
@@ -20220,8 +20558,14 @@
         <v>0</v>
       </c>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
-      <c r="L551" t="inlineStr"/>
+      <c r="K551" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M551" t="n">
         <v>1</v>
       </c>
@@ -20255,8 +20599,14 @@
         <v>0</v>
       </c>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
-      <c r="L552" t="inlineStr"/>
+      <c r="K552" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M552" t="n">
         <v>1</v>
       </c>
@@ -20290,8 +20640,14 @@
         <v>0</v>
       </c>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
-      <c r="L553" t="inlineStr"/>
+      <c r="K553" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M553" t="n">
         <v>1</v>
       </c>
@@ -20325,8 +20681,14 @@
         <v>0</v>
       </c>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
-      <c r="L554" t="inlineStr"/>
+      <c r="K554" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M554" t="n">
         <v>1</v>
       </c>
@@ -20360,8 +20722,14 @@
         <v>0</v>
       </c>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
-      <c r="L555" t="inlineStr"/>
+      <c r="K555" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M555" t="n">
         <v>1</v>
       </c>
@@ -20395,8 +20763,14 @@
         <v>0</v>
       </c>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
-      <c r="L556" t="inlineStr"/>
+      <c r="K556" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M556" t="n">
         <v>1</v>
       </c>
@@ -20430,8 +20804,14 @@
         <v>0</v>
       </c>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
-      <c r="L557" t="inlineStr"/>
+      <c r="K557" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M557" t="n">
         <v>1</v>
       </c>
@@ -20465,8 +20845,14 @@
         <v>0</v>
       </c>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
-      <c r="L558" t="inlineStr"/>
+      <c r="K558" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M558" t="n">
         <v>1</v>
       </c>
@@ -20500,8 +20886,14 @@
         <v>0</v>
       </c>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
-      <c r="L559" t="inlineStr"/>
+      <c r="K559" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M559" t="n">
         <v>1</v>
       </c>
@@ -20535,8 +20927,14 @@
         <v>0</v>
       </c>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
-      <c r="L560" t="inlineStr"/>
+      <c r="K560" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M560" t="n">
         <v>1</v>
       </c>
@@ -20570,8 +20968,14 @@
         <v>0</v>
       </c>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
-      <c r="L561" t="inlineStr"/>
+      <c r="K561" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M561" t="n">
         <v>1</v>
       </c>
@@ -20605,8 +21009,14 @@
         <v>0</v>
       </c>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
-      <c r="L562" t="inlineStr"/>
+      <c r="K562" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M562" t="n">
         <v>1</v>
       </c>
@@ -20640,8 +21050,14 @@
         <v>0</v>
       </c>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
-      <c r="L563" t="inlineStr"/>
+      <c r="K563" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M563" t="n">
         <v>1</v>
       </c>
@@ -20675,8 +21091,14 @@
         <v>0</v>
       </c>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
-      <c r="L564" t="inlineStr"/>
+      <c r="K564" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M564" t="n">
         <v>1</v>
       </c>
@@ -20710,8 +21132,14 @@
         <v>0</v>
       </c>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
-      <c r="L565" t="inlineStr"/>
+      <c r="K565" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M565" t="n">
         <v>1</v>
       </c>
@@ -20745,8 +21173,14 @@
         <v>0</v>
       </c>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
-      <c r="L566" t="inlineStr"/>
+      <c r="K566" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M566" t="n">
         <v>1</v>
       </c>
@@ -20780,8 +21214,14 @@
         <v>0</v>
       </c>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
-      <c r="L567" t="inlineStr"/>
+      <c r="K567" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M567" t="n">
         <v>1</v>
       </c>
@@ -20815,8 +21255,14 @@
         <v>0</v>
       </c>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
-      <c r="L568" t="inlineStr"/>
+      <c r="K568" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M568" t="n">
         <v>1</v>
       </c>
@@ -20850,8 +21296,14 @@
         <v>0</v>
       </c>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
-      <c r="L569" t="inlineStr"/>
+      <c r="K569" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M569" t="n">
         <v>1</v>
       </c>
@@ -20885,8 +21337,14 @@
         <v>0</v>
       </c>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
-      <c r="L570" t="inlineStr"/>
+      <c r="K570" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M570" t="n">
         <v>1</v>
       </c>
@@ -20920,8 +21378,14 @@
         <v>0</v>
       </c>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
-      <c r="L571" t="inlineStr"/>
+      <c r="K571" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M571" t="n">
         <v>1</v>
       </c>
@@ -20955,8 +21419,14 @@
         <v>0</v>
       </c>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
-      <c r="L572" t="inlineStr"/>
+      <c r="K572" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M572" t="n">
         <v>1</v>
       </c>
@@ -20990,8 +21460,14 @@
         <v>0</v>
       </c>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
-      <c r="L573" t="inlineStr"/>
+      <c r="K573" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M573" t="n">
         <v>1</v>
       </c>
@@ -21025,8 +21501,14 @@
         <v>0</v>
       </c>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
-      <c r="L574" t="inlineStr"/>
+      <c r="K574" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M574" t="n">
         <v>1</v>
       </c>
@@ -21060,8 +21542,14 @@
         <v>0</v>
       </c>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
-      <c r="L575" t="inlineStr"/>
+      <c r="K575" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M575" t="n">
         <v>1</v>
       </c>
@@ -21095,8 +21583,14 @@
         <v>0</v>
       </c>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
-      <c r="L576" t="inlineStr"/>
+      <c r="K576" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M576" t="n">
         <v>1</v>
       </c>
@@ -21130,8 +21624,14 @@
         <v>0</v>
       </c>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
-      <c r="L577" t="inlineStr"/>
+      <c r="K577" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M577" t="n">
         <v>1</v>
       </c>
@@ -21165,8 +21665,14 @@
         <v>0</v>
       </c>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
-      <c r="L578" t="inlineStr"/>
+      <c r="K578" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M578" t="n">
         <v>1</v>
       </c>
@@ -21200,8 +21706,14 @@
         <v>0</v>
       </c>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
-      <c r="L579" t="inlineStr"/>
+      <c r="K579" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M579" t="n">
         <v>1</v>
       </c>
@@ -21235,8 +21747,14 @@
         <v>0</v>
       </c>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
-      <c r="L580" t="inlineStr"/>
+      <c r="K580" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M580" t="n">
         <v>1</v>
       </c>
@@ -21270,8 +21788,14 @@
         <v>0</v>
       </c>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
-      <c r="L581" t="inlineStr"/>
+      <c r="K581" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M581" t="n">
         <v>1</v>
       </c>
@@ -21305,8 +21829,14 @@
         <v>0</v>
       </c>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
-      <c r="L582" t="inlineStr"/>
+      <c r="K582" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M582" t="n">
         <v>1</v>
       </c>
@@ -21340,8 +21870,14 @@
         <v>0</v>
       </c>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
-      <c r="L583" t="inlineStr"/>
+      <c r="K583" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M583" t="n">
         <v>1</v>
       </c>
@@ -21375,8 +21911,14 @@
         <v>0</v>
       </c>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
-      <c r="L584" t="inlineStr"/>
+      <c r="K584" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M584" t="n">
         <v>1</v>
       </c>
@@ -21410,8 +21952,14 @@
         <v>0</v>
       </c>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
-      <c r="L585" t="inlineStr"/>
+      <c r="K585" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M585" t="n">
         <v>1</v>
       </c>
@@ -21445,8 +21993,14 @@
         <v>0</v>
       </c>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
-      <c r="L586" t="inlineStr"/>
+      <c r="K586" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M586" t="n">
         <v>1</v>
       </c>
@@ -21480,8 +22034,14 @@
         <v>0</v>
       </c>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
-      <c r="L587" t="inlineStr"/>
+      <c r="K587" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M587" t="n">
         <v>1</v>
       </c>
@@ -21509,14 +22069,22 @@
         <v>4.785000000000004</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I588" t="n">
         <v>0</v>
       </c>
-      <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
-      <c r="L588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="K588" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M588" t="n">
         <v>1</v>
       </c>
@@ -21544,14 +22112,22 @@
         <v>4.800000000000004</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I589" t="n">
         <v>0</v>
       </c>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
-      <c r="L589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K589" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M589" t="n">
         <v>1</v>
       </c>
@@ -21579,14 +22155,22 @@
         <v>4.820000000000004</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I590" t="n">
         <v>0</v>
       </c>
-      <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
-      <c r="L590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K590" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M590" t="n">
         <v>1</v>
       </c>
@@ -21614,14 +22198,22 @@
         <v>4.840000000000003</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I591" t="n">
         <v>0</v>
       </c>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
-      <c r="L591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="K591" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M591" t="n">
         <v>1</v>
       </c>
@@ -21649,14 +22241,22 @@
         <v>4.840000000000003</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I592" t="n">
         <v>0</v>
       </c>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
-      <c r="L592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="K592" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M592" t="n">
         <v>1</v>
       </c>
@@ -21684,14 +22284,22 @@
         <v>4.840000000000003</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I593" t="n">
         <v>0</v>
       </c>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
-      <c r="L593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="K593" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M593" t="n">
         <v>1</v>
       </c>
@@ -21719,14 +22327,22 @@
         <v>4.845000000000003</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I594" t="n">
         <v>0</v>
       </c>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
-      <c r="L594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="K594" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M594" t="n">
         <v>1</v>
       </c>
@@ -21760,8 +22376,14 @@
         <v>0</v>
       </c>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
-      <c r="L595" t="inlineStr"/>
+      <c r="K595" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M595" t="n">
         <v>1</v>
       </c>
@@ -21795,8 +22417,14 @@
         <v>0</v>
       </c>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
-      <c r="L596" t="inlineStr"/>
+      <c r="K596" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M596" t="n">
         <v>1</v>
       </c>
@@ -21830,8 +22458,14 @@
         <v>0</v>
       </c>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
-      <c r="L597" t="inlineStr"/>
+      <c r="K597" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M597" t="n">
         <v>1</v>
       </c>
@@ -21865,8 +22499,14 @@
         <v>0</v>
       </c>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
-      <c r="L598" t="inlineStr"/>
+      <c r="K598" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M598" t="n">
         <v>1</v>
       </c>
@@ -21900,8 +22540,14 @@
         <v>0</v>
       </c>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
-      <c r="L599" t="inlineStr"/>
+      <c r="K599" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M599" t="n">
         <v>1</v>
       </c>
@@ -21935,8 +22581,14 @@
         <v>0</v>
       </c>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
-      <c r="L600" t="inlineStr"/>
+      <c r="K600" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M600" t="n">
         <v>1</v>
       </c>
@@ -21970,8 +22622,14 @@
         <v>0</v>
       </c>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
-      <c r="L601" t="inlineStr"/>
+      <c r="K601" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M601" t="n">
         <v>1</v>
       </c>
@@ -22005,8 +22663,14 @@
         <v>0</v>
       </c>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
-      <c r="L602" t="inlineStr"/>
+      <c r="K602" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M602" t="n">
         <v>1</v>
       </c>
@@ -22040,8 +22704,14 @@
         <v>0</v>
       </c>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
-      <c r="L603" t="inlineStr"/>
+      <c r="K603" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M603" t="n">
         <v>1</v>
       </c>
@@ -22075,8 +22745,14 @@
         <v>0</v>
       </c>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
-      <c r="L604" t="inlineStr"/>
+      <c r="K604" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M604" t="n">
         <v>1</v>
       </c>
@@ -22110,8 +22786,14 @@
         <v>0</v>
       </c>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
-      <c r="L605" t="inlineStr"/>
+      <c r="K605" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M605" t="n">
         <v>1</v>
       </c>
@@ -22145,8 +22827,14 @@
         <v>0</v>
       </c>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
-      <c r="L606" t="inlineStr"/>
+      <c r="K606" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M606" t="n">
         <v>1</v>
       </c>
@@ -22180,8 +22868,14 @@
         <v>0</v>
       </c>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
-      <c r="L607" t="inlineStr"/>
+      <c r="K607" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M607" t="n">
         <v>1</v>
       </c>
@@ -22215,8 +22909,14 @@
         <v>0</v>
       </c>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
-      <c r="L608" t="inlineStr"/>
+      <c r="K608" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M608" t="n">
         <v>1</v>
       </c>
@@ -22250,8 +22950,14 @@
         <v>0</v>
       </c>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
-      <c r="L609" t="inlineStr"/>
+      <c r="K609" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M609" t="n">
         <v>1</v>
       </c>
@@ -22285,8 +22991,14 @@
         <v>0</v>
       </c>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
-      <c r="L610" t="inlineStr"/>
+      <c r="K610" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M610" t="n">
         <v>1</v>
       </c>
@@ -22320,8 +23032,14 @@
         <v>0</v>
       </c>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
-      <c r="L611" t="inlineStr"/>
+      <c r="K611" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M611" t="n">
         <v>1</v>
       </c>
@@ -22355,8 +23073,14 @@
         <v>0</v>
       </c>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
-      <c r="L612" t="inlineStr"/>
+      <c r="K612" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M612" t="n">
         <v>1</v>
       </c>
@@ -22390,8 +23114,14 @@
         <v>0</v>
       </c>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
-      <c r="L613" t="inlineStr"/>
+      <c r="K613" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M613" t="n">
         <v>1</v>
       </c>
@@ -22425,8 +23155,14 @@
         <v>0</v>
       </c>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
-      <c r="L614" t="inlineStr"/>
+      <c r="K614" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M614" t="n">
         <v>1</v>
       </c>
@@ -22460,8 +23196,14 @@
         <v>0</v>
       </c>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
-      <c r="L615" t="inlineStr"/>
+      <c r="K615" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M615" t="n">
         <v>1</v>
       </c>
@@ -22495,8 +23237,14 @@
         <v>0</v>
       </c>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
-      <c r="L616" t="inlineStr"/>
+      <c r="K616" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M616" t="n">
         <v>1</v>
       </c>
@@ -22530,8 +23278,14 @@
         <v>0</v>
       </c>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
-      <c r="L617" t="inlineStr"/>
+      <c r="K617" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M617" t="n">
         <v>1</v>
       </c>
@@ -22565,8 +23319,14 @@
         <v>0</v>
       </c>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
-      <c r="L618" t="inlineStr"/>
+      <c r="K618" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M618" t="n">
         <v>1</v>
       </c>
@@ -22600,8 +23360,14 @@
         <v>0</v>
       </c>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
-      <c r="L619" t="inlineStr"/>
+      <c r="K619" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M619" t="n">
         <v>1</v>
       </c>
@@ -22635,8 +23401,14 @@
         <v>0</v>
       </c>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
-      <c r="L620" t="inlineStr"/>
+      <c r="K620" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M620" t="n">
         <v>1</v>
       </c>
@@ -22670,8 +23442,14 @@
         <v>0</v>
       </c>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
-      <c r="L621" t="inlineStr"/>
+      <c r="K621" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M621" t="n">
         <v>1</v>
       </c>
@@ -22705,8 +23483,14 @@
         <v>0</v>
       </c>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
-      <c r="L622" t="inlineStr"/>
+      <c r="K622" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M622" t="n">
         <v>1</v>
       </c>
@@ -22740,8 +23524,14 @@
         <v>0</v>
       </c>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
-      <c r="L623" t="inlineStr"/>
+      <c r="K623" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M623" t="n">
         <v>1</v>
       </c>
@@ -22775,8 +23565,14 @@
         <v>0</v>
       </c>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
-      <c r="L624" t="inlineStr"/>
+      <c r="K624" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M624" t="n">
         <v>1</v>
       </c>
@@ -22810,8 +23606,14 @@
         <v>0</v>
       </c>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
-      <c r="L625" t="inlineStr"/>
+      <c r="K625" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M625" t="n">
         <v>1</v>
       </c>
@@ -22845,8 +23647,14 @@
         <v>0</v>
       </c>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
-      <c r="L626" t="inlineStr"/>
+      <c r="K626" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M626" t="n">
         <v>1</v>
       </c>
@@ -22880,8 +23688,14 @@
         <v>0</v>
       </c>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
-      <c r="L627" t="inlineStr"/>
+      <c r="K627" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M627" t="n">
         <v>1</v>
       </c>
@@ -22915,8 +23729,14 @@
         <v>0</v>
       </c>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
-      <c r="L628" t="inlineStr"/>
+      <c r="K628" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M628" t="n">
         <v>1</v>
       </c>
@@ -22950,8 +23770,14 @@
         <v>0</v>
       </c>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
-      <c r="L629" t="inlineStr"/>
+      <c r="K629" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M629" t="n">
         <v>1</v>
       </c>
@@ -22985,8 +23811,14 @@
         <v>0</v>
       </c>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
-      <c r="L630" t="inlineStr"/>
+      <c r="K630" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M630" t="n">
         <v>1</v>
       </c>
@@ -23020,8 +23852,14 @@
         <v>0</v>
       </c>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
-      <c r="L631" t="inlineStr"/>
+      <c r="K631" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M631" t="n">
         <v>1</v>
       </c>
@@ -23055,8 +23893,14 @@
         <v>0</v>
       </c>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
-      <c r="L632" t="inlineStr"/>
+      <c r="K632" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M632" t="n">
         <v>1</v>
       </c>
@@ -23090,8 +23934,14 @@
         <v>0</v>
       </c>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
-      <c r="L633" t="inlineStr"/>
+      <c r="K633" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M633" t="n">
         <v>1</v>
       </c>
@@ -23125,8 +23975,14 @@
         <v>0</v>
       </c>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
-      <c r="L634" t="inlineStr"/>
+      <c r="K634" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M634" t="n">
         <v>1</v>
       </c>
@@ -23160,8 +24016,14 @@
         <v>0</v>
       </c>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
-      <c r="L635" t="inlineStr"/>
+      <c r="K635" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M635" t="n">
         <v>1</v>
       </c>
@@ -23195,8 +24057,14 @@
         <v>0</v>
       </c>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
-      <c r="L636" t="inlineStr"/>
+      <c r="K636" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M636" t="n">
         <v>1</v>
       </c>
@@ -23230,8 +24098,14 @@
         <v>0</v>
       </c>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
-      <c r="L637" t="inlineStr"/>
+      <c r="K637" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M637" t="n">
         <v>1</v>
       </c>
@@ -23265,8 +24139,14 @@
         <v>0</v>
       </c>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
-      <c r="L638" t="inlineStr"/>
+      <c r="K638" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M638" t="n">
         <v>1</v>
       </c>
@@ -23300,8 +24180,14 @@
         <v>0</v>
       </c>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
-      <c r="L639" t="inlineStr"/>
+      <c r="K639" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M639" t="n">
         <v>1</v>
       </c>
@@ -23335,8 +24221,14 @@
         <v>0</v>
       </c>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
-      <c r="L640" t="inlineStr"/>
+      <c r="K640" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M640" t="n">
         <v>1</v>
       </c>
@@ -23370,8 +24262,14 @@
         <v>0</v>
       </c>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
-      <c r="L641" t="inlineStr"/>
+      <c r="K641" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M641" t="n">
         <v>1</v>
       </c>
@@ -23405,8 +24303,14 @@
         <v>0</v>
       </c>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
-      <c r="L642" t="inlineStr"/>
+      <c r="K642" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M642" t="n">
         <v>1</v>
       </c>
@@ -23440,8 +24344,14 @@
         <v>0</v>
       </c>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
-      <c r="L643" t="inlineStr"/>
+      <c r="K643" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M643" t="n">
         <v>1</v>
       </c>
@@ -23475,8 +24385,14 @@
         <v>0</v>
       </c>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
-      <c r="L644" t="inlineStr"/>
+      <c r="K644" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M644" t="n">
         <v>1</v>
       </c>
@@ -23510,8 +24426,14 @@
         <v>0</v>
       </c>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
-      <c r="L645" t="inlineStr"/>
+      <c r="K645" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M645" t="n">
         <v>1</v>
       </c>
@@ -23545,8 +24467,14 @@
         <v>0</v>
       </c>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
-      <c r="L646" t="inlineStr"/>
+      <c r="K646" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M646" t="n">
         <v>1</v>
       </c>
@@ -23580,8 +24508,14 @@
         <v>0</v>
       </c>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
-      <c r="L647" t="inlineStr"/>
+      <c r="K647" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M647" t="n">
         <v>1</v>
       </c>
@@ -23615,8 +24549,14 @@
         <v>0</v>
       </c>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
-      <c r="L648" t="inlineStr"/>
+      <c r="K648" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M648" t="n">
         <v>1</v>
       </c>
@@ -23650,8 +24590,14 @@
         <v>0</v>
       </c>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
-      <c r="L649" t="inlineStr"/>
+      <c r="K649" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M649" t="n">
         <v>1</v>
       </c>
@@ -23685,8 +24631,14 @@
         <v>0</v>
       </c>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
-      <c r="L650" t="inlineStr"/>
+      <c r="K650" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M650" t="n">
         <v>1</v>
       </c>
@@ -23720,8 +24672,14 @@
         <v>0</v>
       </c>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
-      <c r="L651" t="inlineStr"/>
+      <c r="K651" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M651" t="n">
         <v>1</v>
       </c>
@@ -23755,8 +24713,14 @@
         <v>0</v>
       </c>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
-      <c r="L652" t="inlineStr"/>
+      <c r="K652" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M652" t="n">
         <v>1</v>
       </c>
@@ -23790,8 +24754,14 @@
         <v>0</v>
       </c>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
-      <c r="L653" t="inlineStr"/>
+      <c r="K653" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M653" t="n">
         <v>1</v>
       </c>
@@ -23825,8 +24795,14 @@
         <v>0</v>
       </c>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
-      <c r="L654" t="inlineStr"/>
+      <c r="K654" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M654" t="n">
         <v>1</v>
       </c>
@@ -23860,8 +24836,14 @@
         <v>0</v>
       </c>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
-      <c r="L655" t="inlineStr"/>
+      <c r="K655" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M655" t="n">
         <v>1</v>
       </c>
@@ -23895,8 +24877,14 @@
         <v>0</v>
       </c>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
-      <c r="L656" t="inlineStr"/>
+      <c r="K656" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M656" t="n">
         <v>1</v>
       </c>
@@ -23930,8 +24918,14 @@
         <v>0</v>
       </c>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
-      <c r="L657" t="inlineStr"/>
+      <c r="K657" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M657" t="n">
         <v>1</v>
       </c>
@@ -23965,8 +24959,14 @@
         <v>0</v>
       </c>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
-      <c r="L658" t="inlineStr"/>
+      <c r="K658" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M658" t="n">
         <v>1</v>
       </c>
@@ -24000,8 +25000,14 @@
         <v>0</v>
       </c>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
-      <c r="L659" t="inlineStr"/>
+      <c r="K659" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M659" t="n">
         <v>1</v>
       </c>
@@ -24035,8 +25041,14 @@
         <v>0</v>
       </c>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
-      <c r="L660" t="inlineStr"/>
+      <c r="K660" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M660" t="n">
         <v>1</v>
       </c>
@@ -24070,8 +25082,14 @@
         <v>0</v>
       </c>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
-      <c r="L661" t="inlineStr"/>
+      <c r="K661" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M661" t="n">
         <v>1</v>
       </c>
@@ -24105,8 +25123,14 @@
         <v>0</v>
       </c>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
-      <c r="L662" t="inlineStr"/>
+      <c r="K662" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M662" t="n">
         <v>1</v>
       </c>
@@ -24140,8 +25164,14 @@
         <v>0</v>
       </c>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
-      <c r="L663" t="inlineStr"/>
+      <c r="K663" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M663" t="n">
         <v>1</v>
       </c>
@@ -24175,8 +25205,14 @@
         <v>0</v>
       </c>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
-      <c r="L664" t="inlineStr"/>
+      <c r="K664" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M664" t="n">
         <v>1</v>
       </c>
@@ -24210,8 +25246,14 @@
         <v>0</v>
       </c>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
-      <c r="L665" t="inlineStr"/>
+      <c r="K665" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M665" t="n">
         <v>1</v>
       </c>
@@ -24245,8 +25287,14 @@
         <v>0</v>
       </c>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
-      <c r="L666" t="inlineStr"/>
+      <c r="K666" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M666" t="n">
         <v>1</v>
       </c>
@@ -24280,8 +25328,14 @@
         <v>0</v>
       </c>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
-      <c r="L667" t="inlineStr"/>
+      <c r="K667" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M667" t="n">
         <v>1</v>
       </c>
@@ -24315,8 +25369,14 @@
         <v>0</v>
       </c>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
-      <c r="L668" t="inlineStr"/>
+      <c r="K668" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M668" t="n">
         <v>1</v>
       </c>
@@ -24350,8 +25410,14 @@
         <v>0</v>
       </c>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
-      <c r="L669" t="inlineStr"/>
+      <c r="K669" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M669" t="n">
         <v>1</v>
       </c>
@@ -24385,8 +25451,14 @@
         <v>0</v>
       </c>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
-      <c r="L670" t="inlineStr"/>
+      <c r="K670" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M670" t="n">
         <v>1</v>
       </c>
@@ -24420,8 +25492,14 @@
         <v>0</v>
       </c>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
-      <c r="L671" t="inlineStr"/>
+      <c r="K671" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M671" t="n">
         <v>1</v>
       </c>
@@ -24455,8 +25533,14 @@
         <v>0</v>
       </c>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
-      <c r="L672" t="inlineStr"/>
+      <c r="K672" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M672" t="n">
         <v>1</v>
       </c>
@@ -24490,8 +25574,14 @@
         <v>0</v>
       </c>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
-      <c r="L673" t="inlineStr"/>
+      <c r="K673" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M673" t="n">
         <v>1</v>
       </c>
@@ -24525,8 +25615,14 @@
         <v>0</v>
       </c>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
-      <c r="L674" t="inlineStr"/>
+      <c r="K674" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M674" t="n">
         <v>1</v>
       </c>
@@ -24560,8 +25656,14 @@
         <v>0</v>
       </c>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
-      <c r="L675" t="inlineStr"/>
+      <c r="K675" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M675" t="n">
         <v>1</v>
       </c>
@@ -24595,8 +25697,14 @@
         <v>0</v>
       </c>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
-      <c r="L676" t="inlineStr"/>
+      <c r="K676" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M676" t="n">
         <v>1</v>
       </c>
@@ -24630,8 +25738,14 @@
         <v>0</v>
       </c>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
-      <c r="L677" t="inlineStr"/>
+      <c r="K677" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M677" t="n">
         <v>1</v>
       </c>
@@ -24665,8 +25779,14 @@
         <v>0</v>
       </c>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
-      <c r="L678" t="inlineStr"/>
+      <c r="K678" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M678" t="n">
         <v>1</v>
       </c>
@@ -24700,8 +25820,14 @@
         <v>0</v>
       </c>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
-      <c r="L679" t="inlineStr"/>
+      <c r="K679" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M679" t="n">
         <v>1</v>
       </c>
@@ -24735,8 +25861,14 @@
         <v>0</v>
       </c>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
-      <c r="L680" t="inlineStr"/>
+      <c r="K680" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M680" t="n">
         <v>1</v>
       </c>
@@ -24770,8 +25902,14 @@
         <v>0</v>
       </c>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
-      <c r="L681" t="inlineStr"/>
+      <c r="K681" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M681" t="n">
         <v>1</v>
       </c>
@@ -24805,8 +25943,14 @@
         <v>0</v>
       </c>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
-      <c r="L682" t="inlineStr"/>
+      <c r="K682" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M682" t="n">
         <v>1</v>
       </c>
@@ -24840,8 +25984,14 @@
         <v>0</v>
       </c>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
-      <c r="L683" t="inlineStr"/>
+      <c r="K683" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M683" t="n">
         <v>1</v>
       </c>
@@ -24875,8 +26025,14 @@
         <v>0</v>
       </c>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
-      <c r="L684" t="inlineStr"/>
+      <c r="K684" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M684" t="n">
         <v>1</v>
       </c>
@@ -24910,8 +26066,14 @@
         <v>0</v>
       </c>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
-      <c r="L685" t="inlineStr"/>
+      <c r="K685" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M685" t="n">
         <v>1</v>
       </c>
@@ -24945,8 +26107,14 @@
         <v>0</v>
       </c>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
-      <c r="L686" t="inlineStr"/>
+      <c r="K686" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M686" t="n">
         <v>1</v>
       </c>
@@ -24980,8 +26148,14 @@
         <v>0</v>
       </c>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
-      <c r="L687" t="inlineStr"/>
+      <c r="K687" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M687" t="n">
         <v>1</v>
       </c>
@@ -25015,8 +26189,14 @@
         <v>0</v>
       </c>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
-      <c r="L688" t="inlineStr"/>
+      <c r="K688" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M688" t="n">
         <v>1</v>
       </c>
@@ -25050,8 +26230,14 @@
         <v>0</v>
       </c>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
-      <c r="L689" t="inlineStr"/>
+      <c r="K689" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M689" t="n">
         <v>1</v>
       </c>
@@ -25085,8 +26271,14 @@
         <v>0</v>
       </c>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
-      <c r="L690" t="inlineStr"/>
+      <c r="K690" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M690" t="n">
         <v>1</v>
       </c>
@@ -25120,8 +26312,14 @@
         <v>0</v>
       </c>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
-      <c r="L691" t="inlineStr"/>
+      <c r="K691" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M691" t="n">
         <v>1</v>
       </c>
@@ -25155,8 +26353,14 @@
         <v>0</v>
       </c>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
-      <c r="L692" t="inlineStr"/>
+      <c r="K692" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M692" t="n">
         <v>1</v>
       </c>
@@ -25190,8 +26394,14 @@
         <v>0</v>
       </c>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
-      <c r="L693" t="inlineStr"/>
+      <c r="K693" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M693" t="n">
         <v>1</v>
       </c>
@@ -25225,8 +26435,14 @@
         <v>0</v>
       </c>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
-      <c r="L694" t="inlineStr"/>
+      <c r="K694" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M694" t="n">
         <v>1</v>
       </c>
@@ -25260,8 +26476,14 @@
         <v>0</v>
       </c>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
-      <c r="L695" t="inlineStr"/>
+      <c r="K695" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M695" t="n">
         <v>1</v>
       </c>
@@ -25295,8 +26517,14 @@
         <v>0</v>
       </c>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
-      <c r="L696" t="inlineStr"/>
+      <c r="K696" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M696" t="n">
         <v>1</v>
       </c>
@@ -25330,8 +26558,14 @@
         <v>0</v>
       </c>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
-      <c r="L697" t="inlineStr"/>
+      <c r="K697" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M697" t="n">
         <v>1</v>
       </c>
@@ -25365,8 +26599,14 @@
         <v>0</v>
       </c>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
-      <c r="L698" t="inlineStr"/>
+      <c r="K698" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M698" t="n">
         <v>1</v>
       </c>
@@ -25400,8 +26640,14 @@
         <v>0</v>
       </c>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
-      <c r="L699" t="inlineStr"/>
+      <c r="K699" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M699" t="n">
         <v>1</v>
       </c>
@@ -25435,8 +26681,14 @@
         <v>0</v>
       </c>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
-      <c r="L700" t="inlineStr"/>
+      <c r="K700" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M700" t="n">
         <v>1</v>
       </c>
@@ -25470,8 +26722,14 @@
         <v>0</v>
       </c>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
-      <c r="L701" t="inlineStr"/>
+      <c r="K701" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M701" t="n">
         <v>1</v>
       </c>
@@ -25505,8 +26763,14 @@
         <v>0</v>
       </c>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
-      <c r="L702" t="inlineStr"/>
+      <c r="K702" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M702" t="n">
         <v>1</v>
       </c>
@@ -25540,8 +26804,14 @@
         <v>0</v>
       </c>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
-      <c r="L703" t="inlineStr"/>
+      <c r="K703" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M703" t="n">
         <v>1</v>
       </c>
@@ -25575,8 +26845,14 @@
         <v>0</v>
       </c>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
-      <c r="L704" t="inlineStr"/>
+      <c r="K704" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M704" t="n">
         <v>1</v>
       </c>
@@ -25610,8 +26886,14 @@
         <v>0</v>
       </c>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
-      <c r="L705" t="inlineStr"/>
+      <c r="K705" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M705" t="n">
         <v>1</v>
       </c>
@@ -25645,8 +26927,14 @@
         <v>0</v>
       </c>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
-      <c r="L706" t="inlineStr"/>
+      <c r="K706" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M706" t="n">
         <v>1</v>
       </c>
@@ -25680,8 +26968,14 @@
         <v>0</v>
       </c>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
-      <c r="L707" t="inlineStr"/>
+      <c r="K707" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M707" t="n">
         <v>1</v>
       </c>
@@ -25715,8 +27009,14 @@
         <v>0</v>
       </c>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
-      <c r="L708" t="inlineStr"/>
+      <c r="K708" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M708" t="n">
         <v>1</v>
       </c>
@@ -25750,8 +27050,14 @@
         <v>0</v>
       </c>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
-      <c r="L709" t="inlineStr"/>
+      <c r="K709" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M709" t="n">
         <v>1</v>
       </c>
@@ -25785,8 +27091,14 @@
         <v>0</v>
       </c>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
-      <c r="L710" t="inlineStr"/>
+      <c r="K710" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M710" t="n">
         <v>1</v>
       </c>
@@ -25820,8 +27132,14 @@
         <v>0</v>
       </c>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
-      <c r="L711" t="inlineStr"/>
+      <c r="K711" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M711" t="n">
         <v>1</v>
       </c>
@@ -25855,8 +27173,14 @@
         <v>0</v>
       </c>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
-      <c r="L712" t="inlineStr"/>
+      <c r="K712" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M712" t="n">
         <v>1</v>
       </c>
@@ -25890,8 +27214,14 @@
         <v>0</v>
       </c>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
-      <c r="L713" t="inlineStr"/>
+      <c r="K713" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M713" t="n">
         <v>1</v>
       </c>
@@ -25925,8 +27255,14 @@
         <v>0</v>
       </c>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
-      <c r="L714" t="inlineStr"/>
+      <c r="K714" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M714" t="n">
         <v>1</v>
       </c>
@@ -25960,8 +27296,14 @@
         <v>0</v>
       </c>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
-      <c r="L715" t="inlineStr"/>
+      <c r="K715" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M715" t="n">
         <v>1</v>
       </c>
@@ -25995,8 +27337,14 @@
         <v>0</v>
       </c>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
-      <c r="L716" t="inlineStr"/>
+      <c r="K716" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M716" t="n">
         <v>1</v>
       </c>
@@ -26030,8 +27378,14 @@
         <v>0</v>
       </c>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
-      <c r="L717" t="inlineStr"/>
+      <c r="K717" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M717" t="n">
         <v>1</v>
       </c>
@@ -26065,8 +27419,14 @@
         <v>0</v>
       </c>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
-      <c r="L718" t="inlineStr"/>
+      <c r="K718" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M718" t="n">
         <v>1</v>
       </c>
@@ -26100,8 +27460,14 @@
         <v>0</v>
       </c>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
-      <c r="L719" t="inlineStr"/>
+      <c r="K719" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M719" t="n">
         <v>1</v>
       </c>
@@ -26135,8 +27501,14 @@
         <v>0</v>
       </c>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
-      <c r="L720" t="inlineStr"/>
+      <c r="K720" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M720" t="n">
         <v>1</v>
       </c>
@@ -26170,8 +27542,14 @@
         <v>0</v>
       </c>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
-      <c r="L721" t="inlineStr"/>
+      <c r="K721" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M721" t="n">
         <v>1</v>
       </c>
@@ -26205,8 +27583,14 @@
         <v>0</v>
       </c>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
-      <c r="L722" t="inlineStr"/>
+      <c r="K722" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M722" t="n">
         <v>1</v>
       </c>
@@ -26240,8 +27624,14 @@
         <v>0</v>
       </c>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
-      <c r="L723" t="inlineStr"/>
+      <c r="K723" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M723" t="n">
         <v>1</v>
       </c>
@@ -26275,8 +27665,14 @@
         <v>0</v>
       </c>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
-      <c r="L724" t="inlineStr"/>
+      <c r="K724" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M724" t="n">
         <v>1</v>
       </c>
@@ -26310,8 +27706,14 @@
         <v>0</v>
       </c>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
-      <c r="L725" t="inlineStr"/>
+      <c r="K725" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M725" t="n">
         <v>1</v>
       </c>
@@ -26345,8 +27747,14 @@
         <v>0</v>
       </c>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
-      <c r="L726" t="inlineStr"/>
+      <c r="K726" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M726" t="n">
         <v>1</v>
       </c>
@@ -26380,8 +27788,14 @@
         <v>0</v>
       </c>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
-      <c r="L727" t="inlineStr"/>
+      <c r="K727" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M727" t="n">
         <v>1</v>
       </c>
@@ -26415,8 +27829,14 @@
         <v>0</v>
       </c>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
-      <c r="L728" t="inlineStr"/>
+      <c r="K728" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M728" t="n">
         <v>1</v>
       </c>
@@ -26450,8 +27870,14 @@
         <v>0</v>
       </c>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
-      <c r="L729" t="inlineStr"/>
+      <c r="K729" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M729" t="n">
         <v>1</v>
       </c>
@@ -26485,8 +27911,14 @@
         <v>0</v>
       </c>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
-      <c r="L730" t="inlineStr"/>
+      <c r="K730" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M730" t="n">
         <v>1</v>
       </c>
@@ -26520,8 +27952,14 @@
         <v>0</v>
       </c>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
-      <c r="L731" t="inlineStr"/>
+      <c r="K731" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M731" t="n">
         <v>1</v>
       </c>
@@ -26555,8 +27993,14 @@
         <v>0</v>
       </c>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
-      <c r="L732" t="inlineStr"/>
+      <c r="K732" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M732" t="n">
         <v>1</v>
       </c>
@@ -26590,8 +28034,14 @@
         <v>0</v>
       </c>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
-      <c r="L733" t="inlineStr"/>
+      <c r="K733" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M733" t="n">
         <v>1</v>
       </c>
@@ -26625,8 +28075,14 @@
         <v>0</v>
       </c>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
-      <c r="L734" t="inlineStr"/>
+      <c r="K734" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M734" t="n">
         <v>1</v>
       </c>
@@ -26660,8 +28116,14 @@
         <v>0</v>
       </c>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
-      <c r="L735" t="inlineStr"/>
+      <c r="K735" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M735" t="n">
         <v>1</v>
       </c>
@@ -26695,8 +28157,14 @@
         <v>0</v>
       </c>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
-      <c r="L736" t="inlineStr"/>
+      <c r="K736" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M736" t="n">
         <v>1</v>
       </c>
@@ -26730,8 +28198,14 @@
         <v>0</v>
       </c>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
-      <c r="L737" t="inlineStr"/>
+      <c r="K737" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M737" t="n">
         <v>1</v>
       </c>
@@ -26765,8 +28239,14 @@
         <v>0</v>
       </c>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
-      <c r="L738" t="inlineStr"/>
+      <c r="K738" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M738" t="n">
         <v>1</v>
       </c>
@@ -26800,8 +28280,14 @@
         <v>0</v>
       </c>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
-      <c r="L739" t="inlineStr"/>
+      <c r="K739" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M739" t="n">
         <v>1</v>
       </c>
@@ -26835,8 +28321,14 @@
         <v>0</v>
       </c>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
-      <c r="L740" t="inlineStr"/>
+      <c r="K740" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M740" t="n">
         <v>1</v>
       </c>
@@ -26870,8 +28362,14 @@
         <v>0</v>
       </c>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
-      <c r="L741" t="inlineStr"/>
+      <c r="K741" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M741" t="n">
         <v>1</v>
       </c>
@@ -26905,8 +28403,14 @@
         <v>0</v>
       </c>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
-      <c r="L742" t="inlineStr"/>
+      <c r="K742" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M742" t="n">
         <v>1</v>
       </c>
@@ -26940,8 +28444,14 @@
         <v>0</v>
       </c>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
-      <c r="L743" t="inlineStr"/>
+      <c r="K743" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M743" t="n">
         <v>1</v>
       </c>
@@ -26975,8 +28485,14 @@
         <v>0</v>
       </c>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
-      <c r="L744" t="inlineStr"/>
+      <c r="K744" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M744" t="n">
         <v>1</v>
       </c>
@@ -27010,8 +28526,14 @@
         <v>0</v>
       </c>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
-      <c r="L745" t="inlineStr"/>
+      <c r="K745" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M745" t="n">
         <v>1</v>
       </c>
@@ -27045,8 +28567,14 @@
         <v>0</v>
       </c>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
-      <c r="L746" t="inlineStr"/>
+      <c r="K746" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M746" t="n">
         <v>1</v>
       </c>
@@ -27080,8 +28608,14 @@
         <v>0</v>
       </c>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
-      <c r="L747" t="inlineStr"/>
+      <c r="K747" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M747" t="n">
         <v>1</v>
       </c>
@@ -27115,8 +28649,14 @@
         <v>0</v>
       </c>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
-      <c r="L748" t="inlineStr"/>
+      <c r="K748" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M748" t="n">
         <v>1</v>
       </c>
@@ -27150,8 +28690,14 @@
         <v>0</v>
       </c>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
-      <c r="L749" t="inlineStr"/>
+      <c r="K749" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M749" t="n">
         <v>1</v>
       </c>
@@ -27185,8 +28731,14 @@
         <v>0</v>
       </c>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
-      <c r="L750" t="inlineStr"/>
+      <c r="K750" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M750" t="n">
         <v>1</v>
       </c>
@@ -27220,8 +28772,14 @@
         <v>0</v>
       </c>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
-      <c r="L751" t="inlineStr"/>
+      <c r="K751" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M751" t="n">
         <v>1</v>
       </c>
@@ -27255,8 +28813,14 @@
         <v>0</v>
       </c>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
-      <c r="L752" t="inlineStr"/>
+      <c r="K752" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M752" t="n">
         <v>1</v>
       </c>
@@ -27290,8 +28854,14 @@
         <v>0</v>
       </c>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
-      <c r="L753" t="inlineStr"/>
+      <c r="K753" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M753" t="n">
         <v>1</v>
       </c>
@@ -27325,8 +28895,14 @@
         <v>0</v>
       </c>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
-      <c r="L754" t="inlineStr"/>
+      <c r="K754" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M754" t="n">
         <v>1</v>
       </c>
@@ -27360,8 +28936,14 @@
         <v>0</v>
       </c>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
-      <c r="L755" t="inlineStr"/>
+      <c r="K755" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M755" t="n">
         <v>1</v>
       </c>
@@ -27395,8 +28977,14 @@
         <v>0</v>
       </c>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
-      <c r="L756" t="inlineStr"/>
+      <c r="K756" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M756" t="n">
         <v>1</v>
       </c>
@@ -27430,8 +29018,14 @@
         <v>0</v>
       </c>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
-      <c r="L757" t="inlineStr"/>
+      <c r="K757" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M757" t="n">
         <v>1</v>
       </c>
@@ -27465,8 +29059,14 @@
         <v>0</v>
       </c>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
-      <c r="L758" t="inlineStr"/>
+      <c r="K758" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M758" t="n">
         <v>1</v>
       </c>
@@ -27500,8 +29100,14 @@
         <v>0</v>
       </c>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
-      <c r="L759" t="inlineStr"/>
+      <c r="K759" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M759" t="n">
         <v>1</v>
       </c>
@@ -27535,8 +29141,14 @@
         <v>0</v>
       </c>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
-      <c r="L760" t="inlineStr"/>
+      <c r="K760" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M760" t="n">
         <v>1</v>
       </c>
@@ -27570,8 +29182,14 @@
         <v>0</v>
       </c>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
-      <c r="L761" t="inlineStr"/>
+      <c r="K761" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M761" t="n">
         <v>1</v>
       </c>
@@ -27605,8 +29223,14 @@
         <v>0</v>
       </c>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
-      <c r="L762" t="inlineStr"/>
+      <c r="K762" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M762" t="n">
         <v>1</v>
       </c>
@@ -27640,8 +29264,14 @@
         <v>0</v>
       </c>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
-      <c r="L763" t="inlineStr"/>
+      <c r="K763" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M763" t="n">
         <v>1</v>
       </c>
@@ -27675,8 +29305,14 @@
         <v>0</v>
       </c>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
-      <c r="L764" t="inlineStr"/>
+      <c r="K764" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M764" t="n">
         <v>1</v>
       </c>
@@ -27710,8 +29346,14 @@
         <v>0</v>
       </c>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
-      <c r="L765" t="inlineStr"/>
+      <c r="K765" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M765" t="n">
         <v>1</v>
       </c>
@@ -27745,8 +29387,14 @@
         <v>0</v>
       </c>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
-      <c r="L766" t="inlineStr"/>
+      <c r="K766" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M766" t="n">
         <v>1</v>
       </c>
@@ -27780,8 +29428,14 @@
         <v>0</v>
       </c>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
-      <c r="L767" t="inlineStr"/>
+      <c r="K767" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M767" t="n">
         <v>1</v>
       </c>
@@ -27815,8 +29469,14 @@
         <v>0</v>
       </c>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
-      <c r="L768" t="inlineStr"/>
+      <c r="K768" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M768" t="n">
         <v>1</v>
       </c>
@@ -27850,8 +29510,14 @@
         <v>0</v>
       </c>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
-      <c r="L769" t="inlineStr"/>
+      <c r="K769" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M769" t="n">
         <v>1</v>
       </c>
@@ -27885,8 +29551,14 @@
         <v>0</v>
       </c>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
-      <c r="L770" t="inlineStr"/>
+      <c r="K770" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M770" t="n">
         <v>1</v>
       </c>
@@ -27920,8 +29592,14 @@
         <v>0</v>
       </c>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
-      <c r="L771" t="inlineStr"/>
+      <c r="K771" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M771" t="n">
         <v>1</v>
       </c>
@@ -27955,8 +29633,14 @@
         <v>0</v>
       </c>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
-      <c r="L772" t="inlineStr"/>
+      <c r="K772" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M772" t="n">
         <v>1</v>
       </c>
@@ -27990,8 +29674,14 @@
         <v>0</v>
       </c>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
-      <c r="L773" t="inlineStr"/>
+      <c r="K773" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M773" t="n">
         <v>1</v>
       </c>
@@ -28025,8 +29715,14 @@
         <v>0</v>
       </c>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
-      <c r="L774" t="inlineStr"/>
+      <c r="K774" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M774" t="n">
         <v>1</v>
       </c>
@@ -28060,8 +29756,14 @@
         <v>0</v>
       </c>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
-      <c r="L775" t="inlineStr"/>
+      <c r="K775" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M775" t="n">
         <v>1</v>
       </c>
@@ -28095,8 +29797,14 @@
         <v>0</v>
       </c>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
-      <c r="L776" t="inlineStr"/>
+      <c r="K776" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M776" t="n">
         <v>1</v>
       </c>
@@ -28130,8 +29838,14 @@
         <v>0</v>
       </c>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
-      <c r="L777" t="inlineStr"/>
+      <c r="K777" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M777" t="n">
         <v>1</v>
       </c>
@@ -28165,8 +29879,14 @@
         <v>0</v>
       </c>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
-      <c r="L778" t="inlineStr"/>
+      <c r="K778" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M778" t="n">
         <v>1</v>
       </c>
@@ -28200,8 +29920,14 @@
         <v>0</v>
       </c>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
-      <c r="L779" t="inlineStr"/>
+      <c r="K779" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M779" t="n">
         <v>1</v>
       </c>
@@ -28235,8 +29961,14 @@
         <v>0</v>
       </c>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
-      <c r="L780" t="inlineStr"/>
+      <c r="K780" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M780" t="n">
         <v>1</v>
       </c>
@@ -28270,8 +30002,14 @@
         <v>0</v>
       </c>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
-      <c r="L781" t="inlineStr"/>
+      <c r="K781" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M781" t="n">
         <v>1</v>
       </c>
@@ -28305,8 +30043,14 @@
         <v>0</v>
       </c>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
-      <c r="L782" t="inlineStr"/>
+      <c r="K782" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M782" t="n">
         <v>1</v>
       </c>
@@ -28340,8 +30084,14 @@
         <v>0</v>
       </c>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
-      <c r="L783" t="inlineStr"/>
+      <c r="K783" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M783" t="n">
         <v>1</v>
       </c>
@@ -28375,8 +30125,14 @@
         <v>0</v>
       </c>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
-      <c r="L784" t="inlineStr"/>
+      <c r="K784" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M784" t="n">
         <v>1</v>
       </c>
@@ -28410,8 +30166,14 @@
         <v>0</v>
       </c>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
-      <c r="L785" t="inlineStr"/>
+      <c r="K785" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M785" t="n">
         <v>1</v>
       </c>
@@ -28445,8 +30207,14 @@
         <v>0</v>
       </c>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
-      <c r="L786" t="inlineStr"/>
+      <c r="K786" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M786" t="n">
         <v>1</v>
       </c>
@@ -28480,8 +30248,14 @@
         <v>0</v>
       </c>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
-      <c r="L787" t="inlineStr"/>
+      <c r="K787" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M787" t="n">
         <v>1</v>
       </c>
@@ -28515,8 +30289,14 @@
         <v>0</v>
       </c>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
-      <c r="L788" t="inlineStr"/>
+      <c r="K788" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M788" t="n">
         <v>1</v>
       </c>
@@ -28550,8 +30330,14 @@
         <v>0</v>
       </c>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
-      <c r="L789" t="inlineStr"/>
+      <c r="K789" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M789" t="n">
         <v>1</v>
       </c>
@@ -28585,8 +30371,14 @@
         <v>0</v>
       </c>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
-      <c r="L790" t="inlineStr"/>
+      <c r="K790" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M790" t="n">
         <v>1</v>
       </c>
@@ -28620,8 +30412,14 @@
         <v>0</v>
       </c>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
-      <c r="L791" t="inlineStr"/>
+      <c r="K791" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M791" t="n">
         <v>1</v>
       </c>
@@ -28655,8 +30453,14 @@
         <v>0</v>
       </c>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
-      <c r="L792" t="inlineStr"/>
+      <c r="K792" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M792" t="n">
         <v>1</v>
       </c>
@@ -28690,8 +30494,14 @@
         <v>0</v>
       </c>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
-      <c r="L793" t="inlineStr"/>
+      <c r="K793" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M793" t="n">
         <v>1</v>
       </c>
@@ -28725,8 +30535,14 @@
         <v>0</v>
       </c>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
-      <c r="L794" t="inlineStr"/>
+      <c r="K794" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M794" t="n">
         <v>1</v>
       </c>
@@ -28760,8 +30576,14 @@
         <v>0</v>
       </c>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
-      <c r="L795" t="inlineStr"/>
+      <c r="K795" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M795" t="n">
         <v>1</v>
       </c>
@@ -28795,8 +30617,14 @@
         <v>0</v>
       </c>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
-      <c r="L796" t="inlineStr"/>
+      <c r="K796" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M796" t="n">
         <v>1</v>
       </c>
@@ -28830,8 +30658,14 @@
         <v>0</v>
       </c>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
-      <c r="L797" t="inlineStr"/>
+      <c r="K797" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M797" t="n">
         <v>1</v>
       </c>
@@ -28865,8 +30699,14 @@
         <v>0</v>
       </c>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
-      <c r="L798" t="inlineStr"/>
+      <c r="K798" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M798" t="n">
         <v>1</v>
       </c>
@@ -28900,8 +30740,14 @@
         <v>0</v>
       </c>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
-      <c r="L799" t="inlineStr"/>
+      <c r="K799" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M799" t="n">
         <v>1</v>
       </c>
@@ -28935,8 +30781,14 @@
         <v>0</v>
       </c>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
-      <c r="L800" t="inlineStr"/>
+      <c r="K800" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M800" t="n">
         <v>1</v>
       </c>
@@ -28970,8 +30822,14 @@
         <v>0</v>
       </c>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr"/>
-      <c r="L801" t="inlineStr"/>
+      <c r="K801" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M801" t="n">
         <v>1</v>
       </c>
@@ -29005,8 +30863,14 @@
         <v>0</v>
       </c>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr"/>
-      <c r="L802" t="inlineStr"/>
+      <c r="K802" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M802" t="n">
         <v>1</v>
       </c>
@@ -29040,8 +30904,14 @@
         <v>0</v>
       </c>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr"/>
-      <c r="L803" t="inlineStr"/>
+      <c r="K803" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M803" t="n">
         <v>1</v>
       </c>
@@ -29075,8 +30945,14 @@
         <v>0</v>
       </c>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr"/>
-      <c r="L804" t="inlineStr"/>
+      <c r="K804" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L804" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M804" t="n">
         <v>1</v>
       </c>
@@ -29110,8 +30986,14 @@
         <v>0</v>
       </c>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr"/>
-      <c r="L805" t="inlineStr"/>
+      <c r="K805" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L805" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M805" t="n">
         <v>1</v>
       </c>
@@ -29145,8 +31027,14 @@
         <v>0</v>
       </c>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr"/>
-      <c r="L806" t="inlineStr"/>
+      <c r="K806" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L806" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M806" t="n">
         <v>1</v>
       </c>
@@ -29180,8 +31068,14 @@
         <v>0</v>
       </c>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr"/>
-      <c r="L807" t="inlineStr"/>
+      <c r="K807" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L807" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M807" t="n">
         <v>1</v>
       </c>
@@ -29215,8 +31109,14 @@
         <v>0</v>
       </c>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr"/>
-      <c r="L808" t="inlineStr"/>
+      <c r="K808" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L808" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M808" t="n">
         <v>1</v>
       </c>
@@ -29250,8 +31150,14 @@
         <v>0</v>
       </c>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr"/>
-      <c r="L809" t="inlineStr"/>
+      <c r="K809" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L809" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M809" t="n">
         <v>1</v>
       </c>
@@ -29285,8 +31191,14 @@
         <v>0</v>
       </c>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr"/>
-      <c r="L810" t="inlineStr"/>
+      <c r="K810" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L810" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M810" t="n">
         <v>1</v>
       </c>
@@ -29320,8 +31232,14 @@
         <v>0</v>
       </c>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr"/>
-      <c r="L811" t="inlineStr"/>
+      <c r="K811" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L811" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M811" t="n">
         <v>1</v>
       </c>
@@ -29355,8 +31273,14 @@
         <v>0</v>
       </c>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr"/>
-      <c r="L812" t="inlineStr"/>
+      <c r="K812" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="L812" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M812" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-11-18 BackTest MIX.xlsx
+++ b/BackTest/2019-11-18 BackTest MIX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-1061236.4574</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-1156073.7728</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>4.61</v>
@@ -521,7 +521,7 @@
         <v>-1156073.7728</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>4.6</v>
@@ -562,7 +562,7 @@
         <v>-1156073.7728</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>4.6</v>
@@ -603,7 +603,7 @@
         <v>-1150587.8294</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>4.6</v>
@@ -644,7 +644,7 @@
         <v>-1151603.0111</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>4.64</v>
@@ -685,7 +685,7 @@
         <v>-1151955.0986</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>4.63</v>
@@ -726,7 +726,7 @@
         <v>-1278392.053</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>4.61</v>
@@ -767,7 +767,7 @@
         <v>-1277892.6168</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>4.59</v>
@@ -808,7 +808,7 @@
         <v>-1276892.6168</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>4.6</v>
@@ -849,7 +849,7 @@
         <v>-1276892.6168</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>4.62</v>
@@ -890,7 +890,7 @@
         <v>-1514343.0289</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>4.62</v>
@@ -931,7 +931,7 @@
         <v>-1487796.6427</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>4.6</v>
@@ -972,7 +972,7 @@
         <v>-1512796.6427</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>4.62</v>
@@ -1013,7 +1013,7 @@
         <v>-1511110.6795</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>4.6</v>
@@ -1054,7 +1054,7 @@
         <v>-1511110.6795</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>4.62</v>
@@ -1095,7 +1095,7 @@
         <v>-2244320.267</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>4.62</v>
@@ -1136,7 +1136,7 @@
         <v>-2244320.267</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>4.6</v>
@@ -1177,7 +1177,7 @@
         <v>-2243820.267</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>4.6</v>
@@ -1218,7 +1218,7 @@
         <v>-2242918.6419</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>4.62</v>
@@ -1259,7 +1259,7 @@
         <v>-2255254.7586</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>4.63</v>
@@ -1300,7 +1300,7 @@
         <v>-635633.9743000004</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>4.62</v>
@@ -1341,7 +1341,7 @@
         <v>-635633.9743000004</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>4.65</v>
@@ -1382,7 +1382,7 @@
         <v>-422945.4441000003</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>4.65</v>
@@ -1423,9 +1423,11 @@
         <v>-422945.4441000003</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>4.69</v>
+      </c>
       <c r="J26" t="n">
         <v>4.61</v>
       </c>
@@ -1462,9 +1464,11 @@
         <v>-417792.6511000003</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>4.69</v>
+      </c>
       <c r="J27" t="n">
         <v>4.61</v>
       </c>
@@ -1501,9 +1505,11 @@
         <v>-588804.5221000003</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>4.7</v>
+      </c>
       <c r="J28" t="n">
         <v>4.61</v>
       </c>
@@ -1540,9 +1546,11 @@
         <v>-588804.5221000003</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>4.69</v>
+      </c>
       <c r="J29" t="n">
         <v>4.61</v>
       </c>
@@ -1579,9 +1587,11 @@
         <v>-580196.3931000003</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>4.69</v>
+      </c>
       <c r="J30" t="n">
         <v>4.61</v>
       </c>
@@ -1618,9 +1628,11 @@
         <v>-778991.1154000004</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>4.72</v>
+      </c>
       <c r="J31" t="n">
         <v>4.61</v>
       </c>
@@ -1657,9 +1669,11 @@
         <v>-761163.0496000004</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>4.69</v>
+      </c>
       <c r="J32" t="n">
         <v>4.61</v>
       </c>
@@ -1696,9 +1710,11 @@
         <v>-761163.0496000004</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>4.7</v>
+      </c>
       <c r="J33" t="n">
         <v>4.61</v>
       </c>
@@ -1735,9 +1751,11 @@
         <v>-761163.0496000004</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>4.7</v>
+      </c>
       <c r="J34" t="n">
         <v>4.61</v>
       </c>
@@ -1774,9 +1792,11 @@
         <v>-760039.0496000004</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>4.7</v>
+      </c>
       <c r="J35" t="n">
         <v>4.61</v>
       </c>
@@ -1813,9 +1833,11 @@
         <v>-760431.2105000004</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>4.71</v>
+      </c>
       <c r="J36" t="n">
         <v>4.61</v>
       </c>
@@ -1852,9 +1874,11 @@
         <v>-763921.1667000004</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>4.7</v>
+      </c>
       <c r="J37" t="n">
         <v>4.61</v>
       </c>
@@ -1891,9 +1915,11 @@
         <v>-763797.1667000004</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>4.68</v>
+      </c>
       <c r="J38" t="n">
         <v>4.61</v>
       </c>
@@ -1930,9 +1956,11 @@
         <v>-763797.1667000004</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>4.7</v>
+      </c>
       <c r="J39" t="n">
         <v>4.61</v>
       </c>
@@ -1969,9 +1997,11 @@
         <v>-763797.1667000004</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>4.7</v>
+      </c>
       <c r="J40" t="n">
         <v>4.61</v>
       </c>
@@ -2008,9 +2038,11 @@
         <v>-763857.1647000004</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>4.7</v>
+      </c>
       <c r="J41" t="n">
         <v>4.61</v>
       </c>
@@ -2047,9 +2079,11 @@
         <v>-805525.0904000005</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>4.69</v>
+      </c>
       <c r="J42" t="n">
         <v>4.61</v>
       </c>
@@ -2086,9 +2120,11 @@
         <v>-805525.0904000005</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>4.68</v>
+      </c>
       <c r="J43" t="n">
         <v>4.61</v>
       </c>
@@ -2125,9 +2161,11 @@
         <v>-805280.2452000005</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>4.68</v>
+      </c>
       <c r="J44" t="n">
         <v>4.61</v>
       </c>
@@ -2164,9 +2202,11 @@
         <v>-805280.2452000005</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>4.69</v>
+      </c>
       <c r="J45" t="n">
         <v>4.61</v>
       </c>
@@ -2203,9 +2243,11 @@
         <v>-805280.2452000005</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>4.69</v>
+      </c>
       <c r="J46" t="n">
         <v>4.61</v>
       </c>
@@ -2242,9 +2284,11 @@
         <v>-805600.2452000005</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>4.69</v>
+      </c>
       <c r="J47" t="n">
         <v>4.61</v>
       </c>
@@ -2281,9 +2325,11 @@
         <v>-785705.9567000004</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>4.67</v>
+      </c>
       <c r="J48" t="n">
         <v>4.61</v>
       </c>
@@ -2320,9 +2366,11 @@
         <v>-784334.3793000005</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>4.69</v>
+      </c>
       <c r="J49" t="n">
         <v>4.61</v>
       </c>
@@ -2359,9 +2407,11 @@
         <v>-784334.3793000005</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>4.7</v>
+      </c>
       <c r="J50" t="n">
         <v>4.61</v>
       </c>
@@ -2398,9 +2448,11 @@
         <v>-784334.3793000005</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>4.7</v>
+      </c>
       <c r="J51" t="n">
         <v>4.61</v>
       </c>
@@ -2437,9 +2489,11 @@
         <v>-784334.3793000005</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>4.7</v>
+      </c>
       <c r="J52" t="n">
         <v>4.61</v>
       </c>
@@ -2476,9 +2530,11 @@
         <v>-784334.3793000005</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>4.7</v>
+      </c>
       <c r="J53" t="n">
         <v>4.61</v>
       </c>
@@ -2515,9 +2571,11 @@
         <v>276364.0160082275</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>4.7</v>
+      </c>
       <c r="J54" t="n">
         <v>4.61</v>
       </c>
@@ -2554,9 +2612,11 @@
         <v>276364.0160082275</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>4.74</v>
+      </c>
       <c r="J55" t="n">
         <v>4.61</v>
       </c>
@@ -2632,9 +2692,11 @@
         <v>1063099.160008227</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>4.76</v>
+      </c>
       <c r="J57" t="n">
         <v>4.61</v>
       </c>
@@ -2671,9 +2733,11 @@
         <v>790504.7936999996</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>4.76</v>
+      </c>
       <c r="J58" t="n">
         <v>4.61</v>
       </c>
@@ -2710,9 +2774,11 @@
         <v>790504.7936999996</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>4.74</v>
+      </c>
       <c r="J59" t="n">
         <v>4.61</v>
       </c>
@@ -2749,9 +2815,11 @@
         <v>795504.7936999996</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>4.74</v>
+      </c>
       <c r="J60" t="n">
         <v>4.61</v>
       </c>
@@ -2788,9 +2856,11 @@
         <v>795504.7936999996</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>4.76</v>
+      </c>
       <c r="J61" t="n">
         <v>4.61</v>
       </c>
@@ -2827,9 +2897,11 @@
         <v>795504.7936999996</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>4.76</v>
+      </c>
       <c r="J62" t="n">
         <v>4.61</v>
       </c>
@@ -2866,9 +2938,11 @@
         <v>795354.7936999996</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>4.76</v>
+      </c>
       <c r="J63" t="n">
         <v>4.61</v>
       </c>
@@ -2905,9 +2979,11 @@
         <v>410871.6460999995</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>4.75</v>
+      </c>
       <c r="J64" t="n">
         <v>4.61</v>
       </c>
@@ -2944,9 +3020,11 @@
         <v>410871.6460999995</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>4.7</v>
+      </c>
       <c r="J65" t="n">
         <v>4.61</v>
       </c>
@@ -2983,9 +3061,11 @@
         <v>410721.6460999995</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>4.7</v>
+      </c>
       <c r="J66" t="n">
         <v>4.61</v>
       </c>
@@ -3022,9 +3102,11 @@
         <v>410721.6460999995</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>4.69</v>
+      </c>
       <c r="J67" t="n">
         <v>4.61</v>
       </c>
@@ -3061,9 +3143,11 @@
         <v>410721.6460999995</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>4.69</v>
+      </c>
       <c r="J68" t="n">
         <v>4.61</v>
       </c>
@@ -3100,9 +3184,11 @@
         <v>410721.6460999995</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>4.69</v>
+      </c>
       <c r="J69" t="n">
         <v>4.61</v>
       </c>
@@ -3139,9 +3225,11 @@
         <v>407633.4106999995</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>4.69</v>
+      </c>
       <c r="J70" t="n">
         <v>4.61</v>
       </c>
@@ -3178,9 +3266,11 @@
         <v>407770.7794999995</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>4.68</v>
+      </c>
       <c r="J71" t="n">
         <v>4.61</v>
       </c>
@@ -3217,9 +3307,11 @@
         <v>409733.4106999995</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>4.71</v>
+      </c>
       <c r="J72" t="n">
         <v>4.61</v>
       </c>
@@ -3256,9 +3348,11 @@
         <v>402810.1128999995</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>4.72</v>
+      </c>
       <c r="J73" t="n">
         <v>4.61</v>
       </c>
@@ -3295,9 +3389,11 @@
         <v>403310.1128999995</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>4.7</v>
+      </c>
       <c r="J74" t="n">
         <v>4.61</v>
       </c>
@@ -3334,9 +3430,11 @@
         <v>403310.1128999995</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>4.73</v>
+      </c>
       <c r="J75" t="n">
         <v>4.61</v>
       </c>
@@ -3373,9 +3471,11 @@
         <v>372259.3781999996</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>4.73</v>
+      </c>
       <c r="J76" t="n">
         <v>4.61</v>
       </c>
@@ -3412,9 +3512,11 @@
         <v>308649.2725999996</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>4.69</v>
+      </c>
       <c r="J77" t="n">
         <v>4.61</v>
       </c>
@@ -3451,9 +3553,11 @@
         <v>268088.5783999995</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>4.68</v>
+      </c>
       <c r="J78" t="n">
         <v>4.61</v>
       </c>
@@ -3490,9 +3594,11 @@
         <v>268512.0674999995</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>4.67</v>
+      </c>
       <c r="J79" t="n">
         <v>4.61</v>
       </c>
@@ -3529,9 +3635,11 @@
         <v>268512.0674999995</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>4.72</v>
+      </c>
       <c r="J80" t="n">
         <v>4.61</v>
       </c>
@@ -3568,9 +3676,11 @@
         <v>268512.0674999995</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>4.72</v>
+      </c>
       <c r="J81" t="n">
         <v>4.61</v>
       </c>
@@ -3607,9 +3717,11 @@
         <v>227645.8418999995</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>4.72</v>
+      </c>
       <c r="J82" t="n">
         <v>4.61</v>
       </c>
@@ -3646,9 +3758,11 @@
         <v>227806.7260999995</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>4.71</v>
+      </c>
       <c r="J83" t="n">
         <v>4.61</v>
       </c>
@@ -3685,9 +3799,11 @@
         <v>227806.7260999995</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>4.72</v>
+      </c>
       <c r="J84" t="n">
         <v>4.61</v>
       </c>
@@ -3724,9 +3840,11 @@
         <v>1868628.2238</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>4.72</v>
+      </c>
       <c r="J85" t="n">
         <v>4.61</v>
       </c>
@@ -3763,9 +3881,11 @@
         <v>3024680.750999999</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>4.81</v>
+      </c>
       <c r="J86" t="n">
         <v>4.61</v>
       </c>
@@ -3802,9 +3922,11 @@
         <v>4864795.198660905</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>4.83</v>
+      </c>
       <c r="J87" t="n">
         <v>4.61</v>
       </c>
@@ -6688,7 +6810,7 @@
         <v>49790986.90750846</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
@@ -6727,7 +6849,7 @@
         <v>49277294.24210846</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
@@ -6766,7 +6888,7 @@
         <v>49722289.05720846</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
@@ -6805,7 +6927,7 @@
         <v>49279538.37810846</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
@@ -6883,7 +7005,7 @@
         <v>47104796.11330847</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
@@ -6922,7 +7044,7 @@
         <v>47040544.05390847</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
@@ -6930,13 +7052,15 @@
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>1.183720173535792</v>
+      </c>
+      <c r="M167" t="n">
+        <v>1.008695652173913</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6961,17 +7085,11 @@
         <v>47040544.05390847</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -7000,17 +7118,11 @@
         <v>45689892.84960847</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7039,17 +7151,11 @@
         <v>46535003.13740847</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7078,17 +7184,11 @@
         <v>46535003.13740847</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7117,17 +7217,11 @@
         <v>46308735.26840846</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7156,17 +7250,11 @@
         <v>46308735.26840846</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7195,17 +7283,11 @@
         <v>46537983.75180846</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7234,17 +7316,11 @@
         <v>46537983.75180846</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7273,17 +7349,11 @@
         <v>47058444.59520847</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7312,17 +7382,11 @@
         <v>47058539.65120847</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7351,17 +7415,11 @@
         <v>47182259.10500847</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7390,17 +7448,11 @@
         <v>47182259.10500847</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7429,17 +7481,11 @@
         <v>47080637.17440847</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7471,14 +7517,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7507,17 +7547,11 @@
         <v>45151233.43740846</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7546,17 +7580,11 @@
         <v>45495552.15580846</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7585,17 +7613,11 @@
         <v>47318347.85380846</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7624,17 +7646,11 @@
         <v>47308964.46070846</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7663,17 +7679,11 @@
         <v>46668462.68070846</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7702,17 +7712,11 @@
         <v>46668553.68070846</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7741,17 +7745,11 @@
         <v>46668078.68070846</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7780,17 +7778,11 @@
         <v>47010965.93620846</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7819,17 +7811,11 @@
         <v>47011056.93620846</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7858,17 +7844,11 @@
         <v>47011056.93620846</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7897,17 +7877,11 @@
         <v>45617835.97390846</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7936,17 +7910,11 @@
         <v>44993640.77680846</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7975,17 +7943,11 @@
         <v>45092343.28070846</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -8014,17 +7976,11 @@
         <v>44502203.40620846</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8053,17 +8009,11 @@
         <v>44502203.40620846</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8092,17 +8042,11 @@
         <v>44600262.68930846</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8131,17 +8075,11 @@
         <v>44467613.63590846</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8170,17 +8108,11 @@
         <v>44538963.03740846</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8209,17 +8141,11 @@
         <v>44538963.03740846</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8248,17 +8174,11 @@
         <v>44538963.03740846</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8287,17 +8207,11 @@
         <v>44649467.18420846</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8326,17 +8240,11 @@
         <v>44911156.32600846</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8365,17 +8273,11 @@
         <v>44915917.86630846</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8404,17 +8306,11 @@
         <v>44915917.86630846</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8443,17 +8339,11 @@
         <v>45235784.18050846</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8482,17 +8372,11 @@
         <v>45235784.18050846</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8521,17 +8405,11 @@
         <v>45115388.56550846</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8560,23 +8438,15 @@
         <v>44927731.56260846</v>
       </c>
       <c r="H209" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
-        <v>1.194566160520607</v>
-      </c>
-      <c r="M209" t="n">
-        <v>1.008695652173913</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8601,7 +8471,7 @@
         <v>45048969.07480846</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8634,7 +8504,7 @@
         <v>45048583.80540846</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8667,7 +8537,7 @@
         <v>45048583.80540846</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8700,7 +8570,7 @@
         <v>42850286.40610845</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8733,7 +8603,7 @@
         <v>43017110.06180845</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8766,7 +8636,7 @@
         <v>43017110.06180845</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8799,7 +8669,7 @@
         <v>42886433.48540846</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8832,7 +8702,7 @@
         <v>43621821.18090846</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8865,7 +8735,7 @@
         <v>41317283.75030845</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8898,7 +8768,7 @@
         <v>42540990.88660845</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8931,7 +8801,7 @@
         <v>42267546.22270845</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8964,7 +8834,7 @@
         <v>42271116.79594141</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8997,7 +8867,7 @@
         <v>38261311.70694141</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -9030,7 +8900,7 @@
         <v>35863119.31114141</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -9063,7 +8933,7 @@
         <v>36203913.89984141</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -9096,7 +8966,7 @@
         <v>36895883.5075414</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -9129,7 +8999,7 @@
         <v>36613344.8363414</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -9162,7 +9032,7 @@
         <v>36708123.6413414</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -9195,7 +9065,7 @@
         <v>36708216.6413414</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -9228,7 +9098,7 @@
         <v>36588147.3958414</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -9261,7 +9131,7 @@
         <v>36588240.3958414</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -9294,7 +9164,7 @@
         <v>36588240.3958414</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -9327,7 +9197,7 @@
         <v>36588240.3958414</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -9360,7 +9230,7 @@
         <v>36588240.3958414</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -9393,7 +9263,7 @@
         <v>36505292.2523414</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -9426,7 +9296,7 @@
         <v>36491488.3958414</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -9459,7 +9329,7 @@
         <v>36000920.1673414</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -9492,7 +9362,7 @@
         <v>36409866.58744141</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -9525,7 +9395,7 @@
         <v>36409866.58744141</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -11208,7 +11078,7 @@
         <v>33686016.3134414</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -11241,7 +11111,7 @@
         <v>34231392.20944139</v>
       </c>
       <c r="H290" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11274,7 +11144,7 @@
         <v>33595183.27394139</v>
       </c>
       <c r="H291" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -11571,7 +11441,7 @@
         <v>34065117.21414139</v>
       </c>
       <c r="H300" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11604,7 +11474,7 @@
         <v>34215603.63824139</v>
       </c>
       <c r="H301" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11637,7 +11507,7 @@
         <v>34831122.21154138</v>
       </c>
       <c r="H302" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11670,7 +11540,7 @@
         <v>34834777.21154138</v>
       </c>
       <c r="H303" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11703,7 +11573,7 @@
         <v>35084226.51744138</v>
       </c>
       <c r="H304" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11736,7 +11606,7 @@
         <v>35321334.28824139</v>
       </c>
       <c r="H305" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11769,7 +11639,7 @@
         <v>35203847.49624395</v>
       </c>
       <c r="H306" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11802,7 +11672,7 @@
         <v>35313501.69574396</v>
       </c>
       <c r="H307" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11835,7 +11705,7 @@
         <v>35313501.69574396</v>
       </c>
       <c r="H308" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11868,7 +11738,7 @@
         <v>35399817.32394396</v>
       </c>
       <c r="H309" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11901,7 +11771,7 @@
         <v>35310333.44094396</v>
       </c>
       <c r="H310" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11934,7 +11804,7 @@
         <v>35287026.44894396</v>
       </c>
       <c r="H311" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11967,7 +11837,7 @@
         <v>35102524.39184396</v>
       </c>
       <c r="H312" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -12000,7 +11870,7 @@
         <v>35240087.82874396</v>
       </c>
       <c r="H313" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -12033,7 +11903,7 @@
         <v>35240277.82874396</v>
       </c>
       <c r="H314" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -12066,7 +11936,7 @@
         <v>35181675.63574395</v>
       </c>
       <c r="H315" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -12099,7 +11969,7 @@
         <v>35032577.48134395</v>
       </c>
       <c r="H316" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -12132,7 +12002,7 @@
         <v>35032577.48134395</v>
       </c>
       <c r="H317" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -12165,7 +12035,7 @@
         <v>35067243.84504396</v>
       </c>
       <c r="H318" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -12198,7 +12068,7 @@
         <v>35067243.84504396</v>
       </c>
       <c r="H319" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12297,7 +12167,7 @@
         <v>34660726.15734396</v>
       </c>
       <c r="H322" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12330,7 +12200,7 @@
         <v>34660726.15734396</v>
       </c>
       <c r="H323" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12726,7 +12596,7 @@
         <v>36935841.93944397</v>
       </c>
       <c r="H335" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12759,7 +12629,7 @@
         <v>36935841.93944397</v>
       </c>
       <c r="H336" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12957,7 +12827,7 @@
         <v>36664731.26744396</v>
       </c>
       <c r="H342" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12990,7 +12860,7 @@
         <v>36664731.26744396</v>
       </c>
       <c r="H343" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -13023,7 +12893,7 @@
         <v>36608635.87344396</v>
       </c>
       <c r="H344" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -13056,7 +12926,7 @@
         <v>36376727.87954396</v>
       </c>
       <c r="H345" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -13089,7 +12959,7 @@
         <v>36350420.84744396</v>
       </c>
       <c r="H346" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -13122,7 +12992,7 @@
         <v>36300564.95714396</v>
       </c>
       <c r="H347" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -13155,7 +13025,7 @@
         <v>36387624.73184396</v>
       </c>
       <c r="H348" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -13188,7 +13058,7 @@
         <v>36420636.91564396</v>
       </c>
       <c r="H349" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13320,7 +13190,7 @@
         <v>36817372.87194397</v>
       </c>
       <c r="H353" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -13980,7 +13850,7 @@
         <v>39484172.99054396</v>
       </c>
       <c r="H373" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -14013,7 +13883,7 @@
         <v>39484172.99054396</v>
       </c>
       <c r="H374" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -14046,7 +13916,7 @@
         <v>39484172.99054396</v>
       </c>
       <c r="H375" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -14079,7 +13949,7 @@
         <v>39484172.99054396</v>
       </c>
       <c r="H376" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -14112,7 +13982,7 @@
         <v>39132754.40574396</v>
       </c>
       <c r="H377" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -14145,7 +14015,7 @@
         <v>39132754.40574396</v>
       </c>
       <c r="H378" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -14178,7 +14048,7 @@
         <v>38514157.30704396</v>
       </c>
       <c r="H379" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -14211,7 +14081,7 @@
         <v>38749365.23804396</v>
       </c>
       <c r="H380" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -14244,7 +14114,7 @@
         <v>38851140.55464397</v>
       </c>
       <c r="H381" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -14277,7 +14147,7 @@
         <v>38851140.55464397</v>
       </c>
       <c r="H382" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -14310,7 +14180,7 @@
         <v>38677108.17624397</v>
       </c>
       <c r="H383" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -14343,7 +14213,7 @@
         <v>38670874.18064397</v>
       </c>
       <c r="H384" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -14376,7 +14246,7 @@
         <v>38670969.18064397</v>
       </c>
       <c r="H385" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14409,7 +14279,7 @@
         <v>38923436.26244397</v>
       </c>
       <c r="H386" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -14541,7 +14411,7 @@
         <v>38812275.58254397</v>
       </c>
       <c r="H390" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14673,7 +14543,7 @@
         <v>41890493.24544397</v>
       </c>
       <c r="H394" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14772,7 +14642,7 @@
         <v>44428936.39058553</v>
       </c>
       <c r="H397" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14805,7 +14675,7 @@
         <v>44144097.73798554</v>
       </c>
       <c r="H398" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14838,7 +14708,7 @@
         <v>45729084.68578554</v>
       </c>
       <c r="H399" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14871,7 +14741,7 @@
         <v>45729084.68578554</v>
       </c>
       <c r="H400" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14904,7 +14774,7 @@
         <v>45730795.68578554</v>
       </c>
       <c r="H401" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14937,7 +14807,7 @@
         <v>45384325.89099389</v>
       </c>
       <c r="H402" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14970,7 +14840,7 @@
         <v>44836067.81119388</v>
       </c>
       <c r="H403" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -15003,7 +14873,7 @@
         <v>44297938.15519388</v>
       </c>
       <c r="H404" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -15036,7 +14906,7 @@
         <v>43910713.05789388</v>
       </c>
       <c r="H405" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -15069,7 +14939,7 @@
         <v>43917713.05789388</v>
       </c>
       <c r="H406" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -15102,7 +14972,7 @@
         <v>43883714.71859388</v>
       </c>
       <c r="H407" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -15135,7 +15005,7 @@
         <v>43844460.74689388</v>
       </c>
       <c r="H408" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -15168,7 +15038,7 @@
         <v>43939297.42369388</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -15201,7 +15071,7 @@
         <v>43806771.62459388</v>
       </c>
       <c r="H410" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -15234,7 +15104,7 @@
         <v>43429966.89879388</v>
       </c>
       <c r="H411" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -15267,7 +15137,7 @@
         <v>41493075.44389389</v>
       </c>
       <c r="H412" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -15300,7 +15170,7 @@
         <v>41794314.69779389</v>
       </c>
       <c r="H413" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -15333,7 +15203,7 @@
         <v>41794314.69779389</v>
       </c>
       <c r="H414" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -15366,7 +15236,7 @@
         <v>42232032.80019388</v>
       </c>
       <c r="H415" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -15399,7 +15269,7 @@
         <v>41813657.54819389</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -15432,7 +15302,7 @@
         <v>41485505.32229389</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -15465,7 +15335,7 @@
         <v>41509848.90379389</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15498,7 +15368,7 @@
         <v>41465916.18099388</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -15531,7 +15401,7 @@
         <v>41205862.60509388</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -15564,7 +15434,7 @@
         <v>41407394.60083977</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -15597,7 +15467,7 @@
         <v>41407299.60083977</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -15630,7 +15500,7 @@
         <v>41407299.60083977</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -15663,7 +15533,7 @@
         <v>41407299.60083977</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -15696,7 +15566,7 @@
         <v>41740175.75913977</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -15729,7 +15599,7 @@
         <v>41740175.75913977</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -15762,7 +15632,7 @@
         <v>42518513.66813977</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -15795,7 +15665,7 @@
         <v>41982231.00693977</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -15828,7 +15698,7 @@
         <v>41982231.00693977</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15861,7 +15731,7 @@
         <v>41982231.00693977</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15894,7 +15764,7 @@
         <v>41982231.00693977</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15927,7 +15797,7 @@
         <v>40423018.87553977</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -15960,7 +15830,7 @@
         <v>40423018.87553977</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -15993,7 +15863,7 @@
         <v>40423018.87553977</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -16026,7 +15896,7 @@
         <v>37203569.34883977</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -16059,7 +15929,7 @@
         <v>38404995.36173978</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -16092,7 +15962,7 @@
         <v>37749633.05623978</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -16125,7 +15995,7 @@
         <v>36292223.42003977</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -16158,7 +16028,7 @@
         <v>36634217.46913977</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -16191,7 +16061,7 @@
         <v>36541726.85703977</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -16224,7 +16094,7 @@
         <v>35903914.63133977</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16257,7 +16127,7 @@
         <v>33963773.16343977</v>
       </c>
       <c r="H442" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16290,7 +16160,7 @@
         <v>34990960.43423977</v>
       </c>
       <c r="H443" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16323,7 +16193,7 @@
         <v>34964412.31243978</v>
       </c>
       <c r="H444" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16356,7 +16226,7 @@
         <v>35002151.60703978</v>
       </c>
       <c r="H445" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16389,7 +16259,7 @@
         <v>34088729.02383978</v>
       </c>
       <c r="H446" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16422,7 +16292,7 @@
         <v>31559518.27242922</v>
       </c>
       <c r="H447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16455,7 +16325,7 @@
         <v>33619377.99722923</v>
       </c>
       <c r="H448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16488,7 +16358,7 @@
         <v>33003413.59612923</v>
       </c>
       <c r="H449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -16521,7 +16391,7 @@
         <v>33066044.64922923</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16554,7 +16424,7 @@
         <v>32539940.10692923</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16587,7 +16457,7 @@
         <v>32500042.26292923</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -16620,7 +16490,7 @@
         <v>28775904.20532923</v>
       </c>
       <c r="H453" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -16653,7 +16523,7 @@
         <v>30402419.21222923</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -16686,7 +16556,7 @@
         <v>30326791.15482923</v>
       </c>
       <c r="H455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -16719,7 +16589,7 @@
         <v>30108934.90222923</v>
       </c>
       <c r="H456" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -30755,6 +30625,6 @@
       <c r="M881" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-18 BackTest MIX.xlsx
+++ b/BackTest/2019-11-18 BackTest MIX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1464,11 +1464,9 @@
         <v>-417792.6511000003</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>4.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
         <v>4.61</v>
       </c>
@@ -1505,11 +1503,9 @@
         <v>-588804.5221000003</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>4.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
         <v>4.61</v>
       </c>
@@ -1546,11 +1542,9 @@
         <v>-588804.5221000003</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>4.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
         <v>4.61</v>
       </c>
@@ -1587,11 +1581,9 @@
         <v>-580196.3931000003</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>4.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
         <v>4.61</v>
       </c>
@@ -1628,11 +1620,9 @@
         <v>-778991.1154000004</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>4.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
         <v>4.61</v>
       </c>
@@ -1669,11 +1659,9 @@
         <v>-761163.0496000004</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>4.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
         <v>4.61</v>
       </c>
@@ -1710,11 +1698,9 @@
         <v>-761163.0496000004</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>4.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
         <v>4.61</v>
       </c>
@@ -1751,11 +1737,9 @@
         <v>-761163.0496000004</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>4.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
         <v>4.61</v>
       </c>
@@ -1792,11 +1776,9 @@
         <v>-760039.0496000004</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>4.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
         <v>4.61</v>
       </c>
@@ -1833,11 +1815,9 @@
         <v>-760431.2105000004</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>4.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
         <v>4.61</v>
       </c>
@@ -1874,11 +1854,9 @@
         <v>-763921.1667000004</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>4.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
         <v>4.61</v>
       </c>
@@ -1915,11 +1893,9 @@
         <v>-763797.1667000004</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>4.68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
         <v>4.61</v>
       </c>
@@ -1956,11 +1932,9 @@
         <v>-763797.1667000004</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>4.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
         <v>4.61</v>
       </c>
@@ -1997,11 +1971,9 @@
         <v>-763797.1667000004</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>4.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
         <v>4.61</v>
       </c>
@@ -2038,11 +2010,9 @@
         <v>-763857.1647000004</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>4.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
         <v>4.61</v>
       </c>
@@ -2079,11 +2049,9 @@
         <v>-805525.0904000005</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>4.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
         <v>4.61</v>
       </c>
@@ -2120,11 +2088,9 @@
         <v>-805525.0904000005</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>4.68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
         <v>4.61</v>
       </c>
@@ -2161,11 +2127,9 @@
         <v>-805280.2452000005</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>4.68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
         <v>4.61</v>
       </c>
@@ -2202,11 +2166,9 @@
         <v>-805280.2452000005</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>4.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
         <v>4.61</v>
       </c>
@@ -2243,11 +2205,9 @@
         <v>-805280.2452000005</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>4.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
         <v>4.61</v>
       </c>
@@ -2284,11 +2244,9 @@
         <v>-805600.2452000005</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>4.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
         <v>4.61</v>
       </c>
@@ -2325,11 +2283,9 @@
         <v>-785705.9567000004</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>4.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
         <v>4.61</v>
       </c>
@@ -2366,11 +2322,9 @@
         <v>-784334.3793000005</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>4.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
         <v>4.61</v>
       </c>
@@ -2407,11 +2361,9 @@
         <v>-784334.3793000005</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>4.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
         <v>4.61</v>
       </c>
@@ -2448,11 +2400,9 @@
         <v>-784334.3793000005</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>4.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
         <v>4.61</v>
       </c>
@@ -2489,11 +2439,9 @@
         <v>-784334.3793000005</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>4.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
         <v>4.61</v>
       </c>
@@ -2530,11 +2478,9 @@
         <v>-784334.3793000005</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>4.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
         <v>4.61</v>
       </c>
@@ -2571,11 +2517,9 @@
         <v>276364.0160082275</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>4.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
         <v>4.61</v>
       </c>
@@ -2612,11 +2556,9 @@
         <v>276364.0160082275</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>4.74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
         <v>4.61</v>
       </c>
@@ -2692,11 +2634,9 @@
         <v>1063099.160008227</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>4.76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
         <v>4.61</v>
       </c>
@@ -2733,11 +2673,9 @@
         <v>790504.7936999996</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>4.76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
         <v>4.61</v>
       </c>
@@ -2774,11 +2712,9 @@
         <v>790504.7936999996</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>4.74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
         <v>4.61</v>
       </c>
@@ -2815,11 +2751,9 @@
         <v>795504.7936999996</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>4.74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
         <v>4.61</v>
       </c>
@@ -2856,11 +2790,9 @@
         <v>795504.7936999996</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>4.76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
         <v>4.61</v>
       </c>
@@ -2897,11 +2829,9 @@
         <v>795504.7936999996</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>4.76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
         <v>4.61</v>
       </c>
@@ -2938,11 +2868,9 @@
         <v>795354.7936999996</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>4.76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
         <v>4.61</v>
       </c>
@@ -2979,11 +2907,9 @@
         <v>410871.6460999995</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>4.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
         <v>4.61</v>
       </c>
@@ -3020,11 +2946,9 @@
         <v>410871.6460999995</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>4.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
         <v>4.61</v>
       </c>
@@ -3061,11 +2985,9 @@
         <v>410721.6460999995</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>4.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
         <v>4.61</v>
       </c>
@@ -3102,11 +3024,9 @@
         <v>410721.6460999995</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>4.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
         <v>4.61</v>
       </c>
@@ -3143,11 +3063,9 @@
         <v>410721.6460999995</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>4.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
         <v>4.61</v>
       </c>
@@ -3184,11 +3102,9 @@
         <v>410721.6460999995</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>4.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
         <v>4.61</v>
       </c>
@@ -3225,11 +3141,9 @@
         <v>407633.4106999995</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>4.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
         <v>4.61</v>
       </c>
@@ -3266,11 +3180,9 @@
         <v>407770.7794999995</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>4.68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
         <v>4.61</v>
       </c>
@@ -3307,11 +3219,9 @@
         <v>409733.4106999995</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>4.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
         <v>4.61</v>
       </c>
@@ -3348,11 +3258,9 @@
         <v>402810.1128999995</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>4.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
         <v>4.61</v>
       </c>
@@ -3389,11 +3297,9 @@
         <v>403310.1128999995</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>4.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
         <v>4.61</v>
       </c>
@@ -3430,11 +3336,9 @@
         <v>403310.1128999995</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>4.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
         <v>4.61</v>
       </c>
@@ -3471,11 +3375,9 @@
         <v>372259.3781999996</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>4.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
         <v>4.61</v>
       </c>
@@ -3512,11 +3414,9 @@
         <v>308649.2725999996</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>4.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
         <v>4.61</v>
       </c>
@@ -3553,11 +3453,9 @@
         <v>268088.5783999995</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>4.68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
         <v>4.61</v>
       </c>
@@ -3594,11 +3492,9 @@
         <v>268512.0674999995</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>4.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
         <v>4.61</v>
       </c>
@@ -3635,11 +3531,9 @@
         <v>268512.0674999995</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>4.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
         <v>4.61</v>
       </c>
@@ -3676,11 +3570,9 @@
         <v>268512.0674999995</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>4.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
         <v>4.61</v>
       </c>
@@ -3717,11 +3609,9 @@
         <v>227645.8418999995</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>4.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
         <v>4.61</v>
       </c>
@@ -3758,11 +3648,9 @@
         <v>227806.7260999995</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>4.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
         <v>4.61</v>
       </c>
@@ -3799,11 +3687,9 @@
         <v>227806.7260999995</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
         <v>4.61</v>
       </c>
@@ -3840,11 +3726,9 @@
         <v>1868628.2238</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>4.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
         <v>4.61</v>
       </c>
@@ -3881,11 +3765,9 @@
         <v>3024680.750999999</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>4.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
         <v>4.61</v>
       </c>
@@ -3922,11 +3804,9 @@
         <v>4864795.198660905</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>4.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
         <v>4.61</v>
       </c>
@@ -5172,7 +5052,7 @@
         <v>22658318.99007635</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
@@ -5180,13 +5060,15 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>1.140336225596529</v>
+      </c>
+      <c r="M119" t="n">
+        <v>1.008695652173913</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5211,17 +5093,11 @@
         <v>22567422.16927635</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5250,17 +5126,11 @@
         <v>22448795.64337635</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5289,17 +5159,11 @@
         <v>21887212.77998527</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5328,17 +5192,11 @@
         <v>23070357.40318527</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5367,17 +5225,11 @@
         <v>24454048.16488527</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5406,17 +5258,11 @@
         <v>26549737.40555044</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5445,17 +5291,11 @@
         <v>25934692.95905044</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5484,17 +5324,11 @@
         <v>26551810.34845044</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5523,17 +5357,11 @@
         <v>28165710.58063137</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5562,17 +5390,11 @@
         <v>26261468.23150008</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5601,17 +5423,11 @@
         <v>24150152.53650008</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5640,17 +5456,11 @@
         <v>23474234.26543491</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5679,17 +5489,11 @@
         <v>25799021.64013491</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5718,17 +5522,11 @@
         <v>27144875.24536974</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5757,17 +5555,11 @@
         <v>30796750.22910339</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5796,17 +5588,11 @@
         <v>35309044.13759189</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5838,14 +5624,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5877,14 +5657,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5916,14 +5690,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5955,14 +5723,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5994,14 +5756,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -6033,14 +5789,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -6072,14 +5822,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -6111,14 +5855,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6150,14 +5888,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6189,14 +5921,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6228,14 +5954,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6267,14 +5987,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6306,14 +6020,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6345,14 +6053,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6384,14 +6086,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6423,14 +6119,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6462,14 +6152,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6501,14 +6185,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6540,14 +6218,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6579,14 +6251,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6618,14 +6284,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6657,14 +6317,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6696,14 +6350,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6735,14 +6383,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6774,14 +6416,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6813,14 +6449,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6852,14 +6482,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6891,14 +6515,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6930,14 +6548,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6969,14 +6581,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -7008,14 +6614,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -7044,23 +6644,15 @@
         <v>47040544.05390847</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
-        <v>1.183720173535792</v>
-      </c>
-      <c r="M167" t="n">
-        <v>1.008695652173913</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7118,7 +6710,7 @@
         <v>45689892.84960847</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -7415,7 +7007,7 @@
         <v>47182259.10500847</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -7448,7 +7040,7 @@
         <v>47182259.10500847</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -7481,7 +7073,7 @@
         <v>47080637.17440847</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7547,7 +7139,7 @@
         <v>45151233.43740846</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7580,7 +7172,7 @@
         <v>45495552.15580846</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7613,7 +7205,7 @@
         <v>47318347.85380846</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7646,7 +7238,7 @@
         <v>47308964.46070846</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7679,7 +7271,7 @@
         <v>46668462.68070846</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7712,7 +7304,7 @@
         <v>46668553.68070846</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7745,7 +7337,7 @@
         <v>46668078.68070846</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7778,7 +7370,7 @@
         <v>47010965.93620846</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7811,7 +7403,7 @@
         <v>47011056.93620846</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7844,7 +7436,7 @@
         <v>47011056.93620846</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7877,7 +7469,7 @@
         <v>45617835.97390846</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7910,7 +7502,7 @@
         <v>44993640.77680846</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7943,7 +7535,7 @@
         <v>45092343.28070846</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7976,7 +7568,7 @@
         <v>44502203.40620846</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -8009,7 +7601,7 @@
         <v>44502203.40620846</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -8042,7 +7634,7 @@
         <v>44600262.68930846</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -8075,7 +7667,7 @@
         <v>44467613.63590846</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -8108,7 +7700,7 @@
         <v>44538963.03740846</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -8141,7 +7733,7 @@
         <v>44538963.03740846</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -8174,7 +7766,7 @@
         <v>44538963.03740846</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -8207,7 +7799,7 @@
         <v>44649467.18420846</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -8240,7 +7832,7 @@
         <v>44911156.32600846</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -8273,7 +7865,7 @@
         <v>44915917.86630846</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -8306,7 +7898,7 @@
         <v>44915917.86630846</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -8339,7 +7931,7 @@
         <v>45235784.18050846</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -8372,7 +7964,7 @@
         <v>45235784.18050846</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -8405,7 +7997,7 @@
         <v>45115388.56550846</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -8438,7 +8030,7 @@
         <v>44927731.56260846</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8471,7 +8063,7 @@
         <v>45048969.07480846</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8504,7 +8096,7 @@
         <v>45048583.80540846</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8537,7 +8129,7 @@
         <v>45048583.80540846</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8570,7 +8162,7 @@
         <v>42850286.40610845</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8603,7 +8195,7 @@
         <v>43017110.06180845</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8636,7 +8228,7 @@
         <v>43017110.06180845</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8669,7 +8261,7 @@
         <v>42886433.48540846</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8702,7 +8294,7 @@
         <v>43621821.18090846</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8735,7 +8327,7 @@
         <v>41317283.75030845</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8768,7 +8360,7 @@
         <v>42540990.88660845</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8801,7 +8393,7 @@
         <v>42267546.22270845</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8834,7 +8426,7 @@
         <v>42271116.79594141</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8867,7 +8459,7 @@
         <v>38261311.70694141</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8900,7 +8492,7 @@
         <v>35863119.31114141</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8933,7 +8525,7 @@
         <v>36203913.89984141</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8966,7 +8558,7 @@
         <v>36895883.5075414</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8999,7 +8591,7 @@
         <v>36613344.8363414</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -9032,7 +8624,7 @@
         <v>36708123.6413414</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -9065,7 +8657,7 @@
         <v>36708216.6413414</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -9098,7 +8690,7 @@
         <v>36588147.3958414</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -9131,7 +8723,7 @@
         <v>36588240.3958414</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -9164,7 +8756,7 @@
         <v>36588240.3958414</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -9197,7 +8789,7 @@
         <v>36588240.3958414</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -9230,7 +8822,7 @@
         <v>36588240.3958414</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -9263,7 +8855,7 @@
         <v>36505292.2523414</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -9296,7 +8888,7 @@
         <v>36491488.3958414</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -9329,7 +8921,7 @@
         <v>36000920.1673414</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -9362,7 +8954,7 @@
         <v>36409866.58744141</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -9395,7 +8987,7 @@
         <v>36409866.58744141</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -14741,7 +14333,7 @@
         <v>45729084.68578554</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14774,7 +14366,7 @@
         <v>45730795.68578554</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14807,7 +14399,7 @@
         <v>45384325.89099389</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14840,7 +14432,7 @@
         <v>44836067.81119388</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14873,7 +14465,7 @@
         <v>44297938.15519388</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14906,7 +14498,7 @@
         <v>43910713.05789388</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14939,7 +14531,7 @@
         <v>43917713.05789388</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -14972,7 +14564,7 @@
         <v>43883714.71859388</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -15005,7 +14597,7 @@
         <v>43844460.74689388</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -15038,7 +14630,7 @@
         <v>43939297.42369388</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -15071,7 +14663,7 @@
         <v>43806771.62459388</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -15104,7 +14696,7 @@
         <v>43429966.89879388</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -15137,7 +14729,7 @@
         <v>41493075.44389389</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -15170,7 +14762,7 @@
         <v>41794314.69779389</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -15203,7 +14795,7 @@
         <v>41794314.69779389</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -15236,7 +14828,7 @@
         <v>42232032.80019388</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -15269,7 +14861,7 @@
         <v>41813657.54819389</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -15302,7 +14894,7 @@
         <v>41485505.32229389</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -15335,7 +14927,7 @@
         <v>41509848.90379389</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15368,7 +14960,7 @@
         <v>41465916.18099388</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -15401,7 +14993,7 @@
         <v>41205862.60509388</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -15434,7 +15026,7 @@
         <v>41407394.60083977</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -15467,7 +15059,7 @@
         <v>41407299.60083977</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -15500,7 +15092,7 @@
         <v>41407299.60083977</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -15533,7 +15125,7 @@
         <v>41407299.60083977</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -15566,7 +15158,7 @@
         <v>41740175.75913977</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -15599,7 +15191,7 @@
         <v>41740175.75913977</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -15632,7 +15224,7 @@
         <v>42518513.66813977</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -15665,7 +15257,7 @@
         <v>41982231.00693977</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -15698,7 +15290,7 @@
         <v>41982231.00693977</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15731,7 +15323,7 @@
         <v>41982231.00693977</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15764,7 +15356,7 @@
         <v>41982231.00693977</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15797,7 +15389,7 @@
         <v>40423018.87553977</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -15830,7 +15422,7 @@
         <v>40423018.87553977</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -15863,7 +15455,7 @@
         <v>40423018.87553977</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -15896,7 +15488,7 @@
         <v>37203569.34883977</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -15929,7 +15521,7 @@
         <v>38404995.36173978</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -15962,7 +15554,7 @@
         <v>37749633.05623978</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -15995,7 +15587,7 @@
         <v>36292223.42003977</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -16028,7 +15620,7 @@
         <v>36634217.46913977</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -16061,7 +15653,7 @@
         <v>36541726.85703977</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -16094,7 +15686,7 @@
         <v>35903914.63133977</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16127,7 +15719,7 @@
         <v>33963773.16343977</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16160,7 +15752,7 @@
         <v>34990960.43423977</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16193,7 +15785,7 @@
         <v>34964412.31243978</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16226,7 +15818,7 @@
         <v>35002151.60703978</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16259,7 +15851,7 @@
         <v>34088729.02383978</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -30625,6 +30217,6 @@
       <c r="M881" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-18 BackTest MIX.xlsx
+++ b/BackTest/2019-11-18 BackTest MIX.xlsx
@@ -1503,9 +1503,11 @@
         <v>-588804.5221000003</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>4.7</v>
+      </c>
       <c r="J28" t="n">
         <v>4.61</v>
       </c>
@@ -3180,9 +3182,11 @@
         <v>407770.7794999995</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>4.68</v>
+      </c>
       <c r="J71" t="n">
         <v>4.61</v>
       </c>
@@ -3453,9 +3457,11 @@
         <v>268088.5783999995</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>4.68</v>
+      </c>
       <c r="J78" t="n">
         <v>4.61</v>
       </c>
@@ -3492,9 +3498,11 @@
         <v>268512.0674999995</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>4.67</v>
+      </c>
       <c r="J79" t="n">
         <v>4.61</v>
       </c>
@@ -3726,9 +3734,11 @@
         <v>1868628.2238</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>4.72</v>
+      </c>
       <c r="J85" t="n">
         <v>4.61</v>
       </c>
@@ -5052,7 +5062,7 @@
         <v>22658318.99007635</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
@@ -5060,15 +5070,13 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L119" t="n">
-        <v>1.140336225596529</v>
-      </c>
-      <c r="M119" t="n">
-        <v>1.008695652173913</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5093,11 +5101,17 @@
         <v>22567422.16927635</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5126,11 +5140,17 @@
         <v>22448795.64337635</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5159,11 +5179,17 @@
         <v>21887212.77998527</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5192,11 +5218,17 @@
         <v>23070357.40318527</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5225,11 +5257,17 @@
         <v>24454048.16488527</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5258,11 +5296,17 @@
         <v>26549737.40555044</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5291,11 +5335,17 @@
         <v>25934692.95905044</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5324,11 +5374,17 @@
         <v>26551810.34845044</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5357,11 +5413,17 @@
         <v>28165710.58063137</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5390,11 +5452,17 @@
         <v>26261468.23150008</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5423,11 +5491,17 @@
         <v>24150152.53650008</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5456,11 +5530,17 @@
         <v>23474234.26543491</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5489,11 +5569,17 @@
         <v>25799021.64013491</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5522,11 +5608,17 @@
         <v>27144875.24536974</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5555,11 +5647,17 @@
         <v>30796750.22910339</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5588,11 +5686,17 @@
         <v>35309044.13759189</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5624,8 +5728,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5657,8 +5767,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5690,8 +5806,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5723,8 +5845,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5756,8 +5884,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5789,8 +5923,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5822,8 +5962,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5855,8 +6001,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5888,8 +6040,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5921,8 +6079,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5954,8 +6118,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5987,8 +6157,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6020,8 +6196,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6053,8 +6235,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6086,8 +6274,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6119,8 +6313,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6152,8 +6352,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6185,8 +6391,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6218,8 +6430,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6248,15 +6466,23 @@
         <v>48909723.57590847</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>1.198904555314534</v>
+      </c>
+      <c r="M155" t="n">
+        <v>1.008695652173913</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6281,7 +6507,7 @@
         <v>50068659.75450847</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6314,7 +6540,7 @@
         <v>48728974.91760846</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6347,7 +6573,7 @@
         <v>47742170.50010847</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6380,7 +6606,7 @@
         <v>48926688.10120846</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6413,7 +6639,7 @@
         <v>49349951.44720846</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6446,7 +6672,7 @@
         <v>49790986.90750846</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6479,7 +6705,7 @@
         <v>49277294.24210846</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6512,7 +6738,7 @@
         <v>49722289.05720846</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6545,7 +6771,7 @@
         <v>49279538.37810846</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6578,7 +6804,7 @@
         <v>47999695.37730847</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6611,7 +6837,7 @@
         <v>47104796.11330847</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6644,7 +6870,7 @@
         <v>47040544.05390847</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6677,7 +6903,7 @@
         <v>47040544.05390847</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6710,7 +6936,7 @@
         <v>45689892.84960847</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6743,7 +6969,7 @@
         <v>46535003.13740847</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6776,7 +7002,7 @@
         <v>46535003.13740847</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6809,7 +7035,7 @@
         <v>46308735.26840846</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6842,7 +7068,7 @@
         <v>46308735.26840846</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6875,7 +7101,7 @@
         <v>46537983.75180846</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
